--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_17_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_17_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1440791.001827969</v>
+        <v>1437263.677383459</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28006371.16448381</v>
+        <v>28006371.1644838</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5722104.444737351</v>
+        <v>5722104.444737352</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>88.6643951775992</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3678052820416</v>
+        <v>258.6648444350184</v>
       </c>
       <c r="H11" t="n">
         <v>275.145931902475</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>59.39236321647809</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>40.00382111553877</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7296254640092</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.669673945858</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>72.76475354193595</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7.684819015232499</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>153.3630351679486</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.2110085144546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3354344940787</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>232.2050574170618</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>55.94951925595885</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>275.145931902475</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>59.39236321647809</v>
       </c>
       <c r="T14" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6171309891995</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>381.904666658639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7296254640092</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>134.669673945858</v>
       </c>
       <c r="I16" t="n">
-        <v>72.76475354193595</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>7.684819015232499</v>
+        <v>7.684819015232485</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>141.3625573245817</v>
       </c>
       <c r="T16" t="n">
         <v>237.2110085144546</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3354344940787</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>66.57612241374804</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>230.0226544223909</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>263.2928014298259</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3678052820416</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>275.145931902475</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>59.39236321647809</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6171309891995</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>89.91477983159106</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2016,13 +2016,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.7296254640092</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.669673945858</v>
       </c>
       <c r="I19" t="n">
-        <v>72.76475354193595</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>153.3630351679486</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.2110085144546</v>
       </c>
       <c r="U19" t="n">
         <v>277.3354344940787</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>140.4166845618764</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>263.2928014298259</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>275.145931902475</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>59.39236321647809</v>
       </c>
       <c r="T20" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6171309891995</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>39.80031548868322</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>148.475167659483</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>7.684819015232499</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>153.3630351679486</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.2110085144546</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3354344940787</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>194.669256831949</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2329,10 +2329,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>238.437081680592</v>
+        <v>159.455675816279</v>
       </c>
       <c r="H23" t="n">
         <v>275.145931902475</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>59.39236321647809</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2496,7 +2496,7 @@
         <v>134.669673945858</v>
       </c>
       <c r="I25" t="n">
-        <v>72.76475354193595</v>
+        <v>72.76475354193593</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>7.684819015232499</v>
+        <v>7.684819015232485</v>
       </c>
       <c r="S25" t="n">
         <v>153.3630351679486</v>
@@ -2557,10 +2557,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>398.8211097044081</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -2572,7 +2572,7 @@
         <v>398.3678052820416</v>
       </c>
       <c r="H26" t="n">
-        <v>275.145931902475</v>
+        <v>244.4815568062651</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>59.3923632164781</v>
+        <v>59.39236321647809</v>
       </c>
       <c r="T26" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6171309891995</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2733,7 +2733,7 @@
         <v>134.669673945858</v>
       </c>
       <c r="I28" t="n">
-        <v>72.76475354193595</v>
+        <v>72.76475354193593</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>7.684819015232499</v>
+        <v>7.684819015232485</v>
       </c>
       <c r="S28" t="n">
         <v>153.3630351679486</v>
@@ -2794,13 +2794,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>394.3154535907807</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.50936722938815</v>
+        <v>59.39236321647809</v>
       </c>
       <c r="T29" t="n">
         <v>210.2770796227834</v>
@@ -2860,7 +2860,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2970,7 +2970,7 @@
         <v>134.669673945858</v>
       </c>
       <c r="I31" t="n">
-        <v>72.76475354193595</v>
+        <v>72.76475354193593</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>7.684819015232499</v>
+        <v>7.684819015232485</v>
       </c>
       <c r="S31" t="n">
         <v>153.3630351679486</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>59.39236321647809</v>
       </c>
       <c r="T32" t="n">
         <v>210.2770796227834</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6171309891995</v>
+        <v>174.7084259296218</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>23.97841567276266</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -3207,7 +3207,7 @@
         <v>134.669673945858</v>
       </c>
       <c r="I34" t="n">
-        <v>72.76475354193595</v>
+        <v>72.76475354193593</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>7.684819015232499</v>
+        <v>7.684819015232485</v>
       </c>
       <c r="S34" t="n">
         <v>153.3630351679486</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>220.30663510682</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>275.145931902475</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>59.39236321647809</v>
       </c>
       <c r="T35" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>255.6171309891995</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>272.4408346829349</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.669673945858</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.76475354193593</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>153.3630351679486</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>215.4333386840639</v>
+        <v>237.2110085144546</v>
       </c>
       <c r="U37" t="n">
         <v>277.3354344940787</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>130.2188069418472</v>
       </c>
     </row>
     <row r="38">
@@ -3508,10 +3508,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>308.0513656617194</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>59.3923632164781</v>
+        <v>59.39236321647809</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>281.4191072575255</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>148.475167659483</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>140.6806676375617</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>7.684819015232499</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>153.3630351679486</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3678052820416</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>275.145931902475</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>59.39236321647808</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>351.9748988972674</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>36.47746183922809</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>9.654872274411511</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7296254640092</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>134.669673945858</v>
       </c>
       <c r="I43" t="n">
-        <v>72.76475354193595</v>
+        <v>72.76475354193593</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>7.684819015232499</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>153.3630351679486</v>
+        <v>94.29409433295042</v>
       </c>
       <c r="T43" t="n">
         <v>237.2110085144546</v>
@@ -3963,7 +3963,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>210.7084885759603</v>
+        <v>102.1105785734279</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3678052820416</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>59.39236321647808</v>
       </c>
       <c r="T44" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6171309891995</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>3.436475654347446</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7296254640092</v>
       </c>
       <c r="H46" t="n">
-        <v>134.669673945858</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.76475354193595</v>
+        <v>72.76475354193593</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>153.3630351679486</v>
+        <v>73.80337516017549</v>
       </c>
       <c r="T46" t="n">
         <v>237.2110085144546</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1238.042187805416</v>
+        <v>1433.34503066299</v>
       </c>
       <c r="C11" t="n">
-        <v>811.1414578187157</v>
+        <v>1006.44430067629</v>
       </c>
       <c r="D11" t="n">
-        <v>811.1414578187157</v>
+        <v>1006.44430067629</v>
       </c>
       <c r="E11" t="n">
-        <v>811.1414578187157</v>
+        <v>580.4673608241477</v>
       </c>
       <c r="F11" t="n">
-        <v>721.5814626898276</v>
+        <v>580.4673608241477</v>
       </c>
       <c r="G11" t="n">
         <v>319.1897401827149</v>
@@ -5038,19 +5038,19 @@
         <v>41.2645564428411</v>
       </c>
       <c r="I11" t="n">
-        <v>80.64296560125331</v>
+        <v>80.64296560125339</v>
       </c>
       <c r="J11" t="n">
-        <v>213.5062128414249</v>
+        <v>213.506212841425</v>
       </c>
       <c r="K11" t="n">
         <v>420.8787884255855</v>
       </c>
       <c r="L11" t="n">
-        <v>684.1393418771319</v>
+        <v>684.139341877132</v>
       </c>
       <c r="M11" t="n">
-        <v>982.2137160547604</v>
+        <v>982.2137160547603</v>
       </c>
       <c r="N11" t="n">
         <v>1285.860989095307</v>
@@ -5068,25 +5068,25 @@
         <v>2063.227822142055</v>
       </c>
       <c r="S11" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="T11" t="n">
-        <v>2063.227822142055</v>
+        <v>1790.834445536741</v>
       </c>
       <c r="U11" t="n">
-        <v>2063.227822142055</v>
+        <v>1790.834445536741</v>
       </c>
       <c r="V11" t="n">
-        <v>2063.227822142055</v>
+        <v>1433.34503066299</v>
       </c>
       <c r="W11" t="n">
-        <v>2063.227822142055</v>
+        <v>1433.34503066299</v>
       </c>
       <c r="X11" t="n">
-        <v>2063.227822142055</v>
+        <v>1433.34503066299</v>
       </c>
       <c r="Y11" t="n">
-        <v>1657.890552096946</v>
+        <v>1433.34503066299</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>41.2645564428411</v>
       </c>
       <c r="I12" t="n">
-        <v>60.41309749025406</v>
+        <v>60.41309749025407</v>
       </c>
       <c r="J12" t="n">
-        <v>140.2365568897751</v>
+        <v>345.9929496995873</v>
       </c>
       <c r="K12" t="n">
-        <v>282.9602212658076</v>
+        <v>488.7166140756199</v>
       </c>
       <c r="L12" t="n">
-        <v>793.6091072459662</v>
+        <v>688.1536069610602</v>
       </c>
       <c r="M12" t="n">
-        <v>1029.488162186032</v>
+        <v>924.0326619011257</v>
       </c>
       <c r="N12" t="n">
-        <v>1273.951638629136</v>
+        <v>1168.49613834423</v>
       </c>
       <c r="O12" t="n">
-        <v>1493.97724303802</v>
+        <v>1388.521742753114</v>
       </c>
       <c r="P12" t="n">
-        <v>1667.425565111552</v>
+        <v>1561.970064826646</v>
       </c>
       <c r="Q12" t="n">
-        <v>1775.259305635551</v>
+        <v>1669.803805350645</v>
       </c>
       <c r="R12" t="n">
         <v>1815.226133375711</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>966.6281845530182</v>
+        <v>213.2371195639251</v>
       </c>
       <c r="C13" t="n">
-        <v>794.6556214319342</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="D13" t="n">
-        <v>754.2477213152283</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="E13" t="n">
-        <v>588.0395154680818</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="F13" t="n">
-        <v>416.1777412426422</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="G13" t="n">
-        <v>250.7942811779865</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="H13" t="n">
-        <v>114.7643074953017</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="I13" t="n">
         <v>41.2645564428411</v>
       </c>
       <c r="J13" t="n">
-        <v>159.284049374258</v>
+        <v>81.36233272603712</v>
       </c>
       <c r="K13" t="n">
-        <v>237.995409597585</v>
+        <v>160.0736929493642</v>
       </c>
       <c r="L13" t="n">
-        <v>373.6027879944792</v>
+        <v>642.04572038015</v>
       </c>
       <c r="M13" t="n">
-        <v>485.4548697704262</v>
+        <v>1152.694606360309</v>
       </c>
       <c r="N13" t="n">
-        <v>993.9571298450333</v>
+        <v>1458.086831796239</v>
       </c>
       <c r="O13" t="n">
-        <v>1470.3948901139</v>
+        <v>1934.524592065107</v>
       </c>
       <c r="P13" t="n">
-        <v>1864.538746920123</v>
+        <v>2015.912244298022</v>
       </c>
       <c r="Q13" t="n">
         <v>2063.227822142055</v>
       </c>
       <c r="R13" t="n">
-        <v>2055.465378692325</v>
+        <v>2063.227822142055</v>
       </c>
       <c r="S13" t="n">
-        <v>1900.553221957024</v>
+        <v>1908.315665406753</v>
       </c>
       <c r="T13" t="n">
-        <v>1900.553221957024</v>
+        <v>1668.708586099223</v>
       </c>
       <c r="U13" t="n">
-        <v>1900.553221957024</v>
+        <v>1388.571783579952</v>
       </c>
       <c r="V13" t="n">
-        <v>1900.553221957024</v>
+        <v>1106.860316187981</v>
       </c>
       <c r="W13" t="n">
-        <v>1625.700818129537</v>
+        <v>872.3097531404436</v>
       </c>
       <c r="X13" t="n">
-        <v>1383.136921575342</v>
+        <v>629.7458565862487</v>
       </c>
       <c r="Y13" t="n">
-        <v>1156.794153265084</v>
+        <v>403.4030882759907</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.2645564428411</v>
+        <v>1225.897756899524</v>
       </c>
       <c r="C14" t="n">
-        <v>41.2645564428411</v>
+        <v>798.9970269128246</v>
       </c>
       <c r="D14" t="n">
-        <v>41.2645564428411</v>
+        <v>375.7044060978249</v>
       </c>
       <c r="E14" t="n">
-        <v>41.2645564428411</v>
+        <v>375.7044060978249</v>
       </c>
       <c r="F14" t="n">
-        <v>41.2645564428411</v>
+        <v>375.7044060978249</v>
       </c>
       <c r="G14" t="n">
-        <v>41.2645564428411</v>
+        <v>319.1897401827149</v>
       </c>
       <c r="H14" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="I14" t="n">
-        <v>80.64296560125308</v>
+        <v>80.64296560125331</v>
       </c>
       <c r="J14" t="n">
-        <v>213.5062128414245</v>
+        <v>213.5062128414252</v>
       </c>
       <c r="K14" t="n">
-        <v>420.8787884255851</v>
+        <v>420.8787884255857</v>
       </c>
       <c r="L14" t="n">
-        <v>684.1393418771315</v>
+        <v>684.1393418771322</v>
       </c>
       <c r="M14" t="n">
-        <v>982.2137160547602</v>
+        <v>982.2137160547607</v>
       </c>
       <c r="N14" t="n">
-        <v>1285.860989095307</v>
+        <v>1285.860989095308</v>
       </c>
       <c r="O14" t="n">
         <v>1570.419518651853</v>
@@ -5299,31 +5299,31 @@
         <v>1807.677227494528</v>
       </c>
       <c r="Q14" t="n">
-        <v>1978.01981467369</v>
+        <v>1978.019814673691</v>
       </c>
       <c r="R14" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="S14" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="T14" t="n">
-        <v>1850.826731613991</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="U14" t="n">
-        <v>1592.627609402678</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="V14" t="n">
-        <v>1235.138194528928</v>
+        <v>1645.746121191054</v>
       </c>
       <c r="W14" t="n">
-        <v>838.7468448292748</v>
+        <v>1645.746121191054</v>
       </c>
       <c r="X14" t="n">
-        <v>427.026845997022</v>
+        <v>1645.746121191054</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.2645564428411</v>
+        <v>1645.746121191054</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>84.57790851299586</v>
       </c>
       <c r="H15" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="I15" t="n">
-        <v>60.41309749025406</v>
+        <v>83.87040333466592</v>
       </c>
       <c r="J15" t="n">
-        <v>428.5901296812153</v>
+        <v>345.9929496995871</v>
       </c>
       <c r="K15" t="n">
-        <v>594.1721143605259</v>
+        <v>488.7166140756196</v>
       </c>
       <c r="L15" t="n">
-        <v>793.6091072459662</v>
+        <v>688.1536069610599</v>
       </c>
       <c r="M15" t="n">
-        <v>1029.488162186032</v>
+        <v>924.0326619011256</v>
       </c>
       <c r="N15" t="n">
-        <v>1273.951638629136</v>
+        <v>1168.49613834423</v>
       </c>
       <c r="O15" t="n">
-        <v>1493.97724303802</v>
+        <v>1388.521742753114</v>
       </c>
       <c r="P15" t="n">
-        <v>1667.425565111552</v>
+        <v>1561.970064826646</v>
       </c>
       <c r="Q15" t="n">
-        <v>1775.259305635551</v>
+        <v>1669.803805350645</v>
       </c>
       <c r="R15" t="n">
         <v>1815.226133375711</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1089.537057309542</v>
+        <v>177.294530125526</v>
       </c>
       <c r="C16" t="n">
-        <v>917.5644941884576</v>
+        <v>177.294530125526</v>
       </c>
       <c r="D16" t="n">
-        <v>754.2477213152283</v>
+        <v>177.294530125526</v>
       </c>
       <c r="E16" t="n">
-        <v>588.0395154680818</v>
+        <v>177.294530125526</v>
       </c>
       <c r="F16" t="n">
-        <v>416.1777412426422</v>
+        <v>177.294530125526</v>
       </c>
       <c r="G16" t="n">
-        <v>250.7942811779865</v>
+        <v>177.294530125526</v>
       </c>
       <c r="H16" t="n">
-        <v>114.7643074953017</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="I16" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="J16" t="n">
-        <v>159.284049374258</v>
+        <v>81.36233272603712</v>
       </c>
       <c r="K16" t="n">
-        <v>246.9251742538497</v>
+        <v>160.0736929493642</v>
       </c>
       <c r="L16" t="n">
-        <v>352.5083080934706</v>
+        <v>642.04572038015</v>
       </c>
       <c r="M16" t="n">
-        <v>863.1571940736293</v>
+        <v>753.897802156097</v>
       </c>
       <c r="N16" t="n">
-        <v>1371.659454148236</v>
+        <v>1262.400062230704</v>
       </c>
       <c r="O16" t="n">
-        <v>1470.3948901139</v>
+        <v>1738.837822499571</v>
       </c>
       <c r="P16" t="n">
-        <v>1864.538746920123</v>
+        <v>2015.912244298022</v>
       </c>
       <c r="Q16" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="R16" t="n">
-        <v>2055.465378692325</v>
+        <v>2055.465378692326</v>
       </c>
       <c r="S16" t="n">
-        <v>2055.465378692325</v>
+        <v>1912.674916748304</v>
       </c>
       <c r="T16" t="n">
-        <v>1815.858299384795</v>
+        <v>1673.067837440774</v>
       </c>
       <c r="U16" t="n">
-        <v>1815.858299384795</v>
+        <v>1392.931034921503</v>
       </c>
       <c r="V16" t="n">
-        <v>1815.858299384795</v>
+        <v>1111.219567529532</v>
       </c>
       <c r="W16" t="n">
-        <v>1748.60969088606</v>
+        <v>836.3671637020445</v>
       </c>
       <c r="X16" t="n">
-        <v>1506.045794331865</v>
+        <v>593.8032671478496</v>
       </c>
       <c r="Y16" t="n">
-        <v>1279.703026021607</v>
+        <v>367.4604988375916</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1805.028699930743</v>
+        <v>1583.387171773275</v>
       </c>
       <c r="C17" t="n">
-        <v>1805.028699930743</v>
+        <v>1156.486441786575</v>
       </c>
       <c r="D17" t="n">
-        <v>1572.68258435257</v>
+        <v>733.1938209715754</v>
       </c>
       <c r="E17" t="n">
-        <v>1146.705644500427</v>
+        <v>307.216881119433</v>
       </c>
       <c r="F17" t="n">
-        <v>721.5814626898276</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="G17" t="n">
-        <v>319.1897401827149</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="H17" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="I17" t="n">
-        <v>80.64296560125331</v>
+        <v>80.64296560125342</v>
       </c>
       <c r="J17" t="n">
-        <v>213.5062128414247</v>
+        <v>213.5062128414251</v>
       </c>
       <c r="K17" t="n">
-        <v>420.8787884255854</v>
+        <v>420.8787884255856</v>
       </c>
       <c r="L17" t="n">
-        <v>684.1393418771318</v>
+        <v>684.1393418771321</v>
       </c>
       <c r="M17" t="n">
-        <v>982.2137160547604</v>
+        <v>982.2137160547607</v>
       </c>
       <c r="N17" t="n">
-        <v>1285.860989095307</v>
+        <v>1285.860989095308</v>
       </c>
       <c r="O17" t="n">
-        <v>1570.419518651853</v>
+        <v>1570.419518651854</v>
       </c>
       <c r="P17" t="n">
         <v>1807.677227494528</v>
       </c>
       <c r="Q17" t="n">
-        <v>1978.01981467369</v>
+        <v>1978.019814673691</v>
       </c>
       <c r="R17" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="S17" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="T17" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="U17" t="n">
-        <v>1805.028699930743</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="V17" t="n">
-        <v>1805.028699930743</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="W17" t="n">
-        <v>1805.028699930743</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="X17" t="n">
-        <v>1805.028699930743</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="Y17" t="n">
-        <v>1805.028699930743</v>
+        <v>2003.235536064805</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>84.57790851299586</v>
       </c>
       <c r="H18" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="I18" t="n">
-        <v>60.41309749025406</v>
+        <v>83.87040333466592</v>
       </c>
       <c r="J18" t="n">
-        <v>136.4876372116241</v>
+        <v>345.9929496995871</v>
       </c>
       <c r="K18" t="n">
-        <v>279.2113015876566</v>
+        <v>488.7166140756196</v>
       </c>
       <c r="L18" t="n">
-        <v>478.6482944730969</v>
+        <v>688.1536069610599</v>
       </c>
       <c r="M18" t="n">
-        <v>714.5273494131625</v>
+        <v>924.0326619011256</v>
       </c>
       <c r="N18" t="n">
-        <v>958.9908258562668</v>
+        <v>1168.49613834423</v>
       </c>
       <c r="O18" t="n">
-        <v>1179.016430265151</v>
+        <v>1388.521742753114</v>
       </c>
       <c r="P18" t="n">
-        <v>1352.464752338683</v>
+        <v>1561.970064826646</v>
       </c>
       <c r="Q18" t="n">
-        <v>1775.259305635551</v>
+        <v>1669.803805350645</v>
       </c>
       <c r="R18" t="n">
         <v>1815.226133375711</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>788.123623562201</v>
+        <v>1016.037306257081</v>
       </c>
       <c r="C19" t="n">
-        <v>616.151060441117</v>
+        <v>844.0647431359971</v>
       </c>
       <c r="D19" t="n">
-        <v>452.8342875678877</v>
+        <v>680.7479702627678</v>
       </c>
       <c r="E19" t="n">
-        <v>286.6260817207412</v>
+        <v>514.5397644156213</v>
       </c>
       <c r="F19" t="n">
-        <v>114.7643074953017</v>
+        <v>342.6779901901817</v>
       </c>
       <c r="G19" t="n">
-        <v>114.7643074953017</v>
+        <v>177.294530125526</v>
       </c>
       <c r="H19" t="n">
-        <v>114.7643074953017</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="I19" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="J19" t="n">
         <v>159.284049374258</v>
       </c>
       <c r="K19" t="n">
-        <v>237.995409597585</v>
+        <v>485.2780187116071</v>
       </c>
       <c r="L19" t="n">
-        <v>373.6027879944792</v>
+        <v>590.8611525512281</v>
       </c>
       <c r="M19" t="n">
-        <v>485.4548697704262</v>
+        <v>1101.510038531387</v>
       </c>
       <c r="N19" t="n">
-        <v>993.9571298450333</v>
+        <v>1458.08683179624</v>
       </c>
       <c r="O19" t="n">
-        <v>1470.3948901139</v>
+        <v>1934.524592065107</v>
       </c>
       <c r="P19" t="n">
-        <v>1864.538746920123</v>
+        <v>2015.912244298022</v>
       </c>
       <c r="Q19" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="R19" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="S19" t="n">
-        <v>1908.315665406753</v>
+        <v>1908.315665406754</v>
       </c>
       <c r="T19" t="n">
-        <v>1908.315665406753</v>
+        <v>1668.708586099224</v>
       </c>
       <c r="U19" t="n">
-        <v>1628.178862887482</v>
+        <v>1388.571783579952</v>
       </c>
       <c r="V19" t="n">
-        <v>1346.467395495511</v>
+        <v>1106.860316187981</v>
       </c>
       <c r="W19" t="n">
-        <v>1346.467395495511</v>
+        <v>1106.860316187981</v>
       </c>
       <c r="X19" t="n">
-        <v>1204.632360584525</v>
+        <v>1106.860316187981</v>
       </c>
       <c r="Y19" t="n">
-        <v>978.2895922742666</v>
+        <v>1106.860316187981</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>744.3139219933147</v>
+        <v>1583.387171773275</v>
       </c>
       <c r="C20" t="n">
-        <v>744.3139219933147</v>
+        <v>1156.486441786575</v>
       </c>
       <c r="D20" t="n">
-        <v>744.3139219933147</v>
+        <v>733.1938209715754</v>
       </c>
       <c r="E20" t="n">
-        <v>744.3139219933147</v>
+        <v>307.216881119433</v>
       </c>
       <c r="F20" t="n">
-        <v>319.1897401827149</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="G20" t="n">
-        <v>319.1897401827149</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="H20" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="I20" t="n">
-        <v>80.64296560125339</v>
+        <v>80.64296560125342</v>
       </c>
       <c r="J20" t="n">
-        <v>213.506212841425</v>
+        <v>213.5062128414252</v>
       </c>
       <c r="K20" t="n">
-        <v>420.8787884255855</v>
+        <v>420.8787884255858</v>
       </c>
       <c r="L20" t="n">
-        <v>684.139341877132</v>
+        <v>684.1393418771322</v>
       </c>
       <c r="M20" t="n">
-        <v>982.2137160547604</v>
+        <v>982.2137160547607</v>
       </c>
       <c r="N20" t="n">
         <v>1285.860989095308</v>
       </c>
       <c r="O20" t="n">
-        <v>1570.419518651853</v>
+        <v>1570.419518651854</v>
       </c>
       <c r="P20" t="n">
         <v>1807.677227494528</v>
       </c>
       <c r="Q20" t="n">
-        <v>1978.01981467369</v>
+        <v>1978.019814673691</v>
       </c>
       <c r="R20" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="S20" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="T20" t="n">
-        <v>1850.826731613991</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="U20" t="n">
-        <v>1592.627609402678</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="V20" t="n">
-        <v>1552.425270525221</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="W20" t="n">
-        <v>1156.033920825568</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="X20" t="n">
-        <v>744.3139219933147</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="Y20" t="n">
-        <v>744.3139219933147</v>
+        <v>2003.235536064805</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>84.57790851299586</v>
       </c>
       <c r="H21" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="I21" t="n">
-        <v>60.41309749025406</v>
+        <v>83.87040333466592</v>
       </c>
       <c r="J21" t="n">
-        <v>136.4876372116241</v>
+        <v>345.9929496995871</v>
       </c>
       <c r="K21" t="n">
-        <v>594.1721143605259</v>
+        <v>488.7166140756196</v>
       </c>
       <c r="L21" t="n">
-        <v>793.6091072459662</v>
+        <v>688.1536069610599</v>
       </c>
       <c r="M21" t="n">
-        <v>1029.488162186032</v>
+        <v>924.0326619011256</v>
       </c>
       <c r="N21" t="n">
-        <v>1273.951638629136</v>
+        <v>1168.49613834423</v>
       </c>
       <c r="O21" t="n">
-        <v>1493.97724303802</v>
+        <v>1388.521742753114</v>
       </c>
       <c r="P21" t="n">
-        <v>1667.425565111552</v>
+        <v>1561.970064826646</v>
       </c>
       <c r="Q21" t="n">
-        <v>1775.259305635551</v>
+        <v>1669.803805350645</v>
       </c>
       <c r="R21" t="n">
         <v>1815.226133375711</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>714.6238725097404</v>
+        <v>213.1263306682807</v>
       </c>
       <c r="C22" t="n">
-        <v>542.6513093886564</v>
+        <v>213.1263306682807</v>
       </c>
       <c r="D22" t="n">
-        <v>379.3345365154271</v>
+        <v>213.1263306682807</v>
       </c>
       <c r="E22" t="n">
         <v>213.1263306682807</v>
       </c>
       <c r="F22" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="G22" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="H22" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="I22" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="J22" t="n">
         <v>159.284049374258</v>
       </c>
       <c r="K22" t="n">
-        <v>237.995409597585</v>
+        <v>485.2780187116071</v>
       </c>
       <c r="L22" t="n">
-        <v>373.6027879944792</v>
+        <v>967.250046142393</v>
       </c>
       <c r="M22" t="n">
-        <v>485.4548697704262</v>
+        <v>1261.19011691551</v>
       </c>
       <c r="N22" t="n">
-        <v>993.9571298450333</v>
+        <v>1371.659454148237</v>
       </c>
       <c r="O22" t="n">
-        <v>1470.3948901139</v>
+        <v>1470.394890113901</v>
       </c>
       <c r="P22" t="n">
         <v>1864.538746920123</v>
       </c>
       <c r="Q22" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="R22" t="n">
-        <v>2055.465378692325</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="S22" t="n">
-        <v>1900.553221957024</v>
+        <v>1908.315665406754</v>
       </c>
       <c r="T22" t="n">
-        <v>1900.553221957024</v>
+        <v>1668.708586099224</v>
       </c>
       <c r="U22" t="n">
-        <v>1900.553221957024</v>
+        <v>1388.571783579952</v>
       </c>
       <c r="V22" t="n">
-        <v>1618.841754565052</v>
+        <v>1106.860316187981</v>
       </c>
       <c r="W22" t="n">
-        <v>1343.989350737565</v>
+        <v>832.0079123604942</v>
       </c>
       <c r="X22" t="n">
-        <v>1101.425454183371</v>
+        <v>589.4440158062993</v>
       </c>
       <c r="Y22" t="n">
-        <v>904.789841221806</v>
+        <v>363.1012474960413</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1877.470124330501</v>
+        <v>2222.81510829836</v>
       </c>
       <c r="C23" t="n">
-        <v>1450.569394343801</v>
+        <v>1795.914378311661</v>
       </c>
       <c r="D23" t="n">
-        <v>1027.276773528801</v>
+        <v>1372.621757496661</v>
       </c>
       <c r="E23" t="n">
-        <v>601.299833676659</v>
+        <v>946.6448176445184</v>
       </c>
       <c r="F23" t="n">
-        <v>601.299833676659</v>
+        <v>521.5206358339186</v>
       </c>
       <c r="G23" t="n">
         <v>360.454296625556</v>
@@ -5989,19 +5989,19 @@
         <v>121.9075220440945</v>
       </c>
       <c r="J23" t="n">
-        <v>254.7707692842661</v>
+        <v>646.4999879918923</v>
       </c>
       <c r="K23" t="n">
-        <v>1213.058607630787</v>
+        <v>853.8725635760529</v>
       </c>
       <c r="L23" t="n">
-        <v>1510.039369306395</v>
+        <v>1117.133117027599</v>
       </c>
       <c r="M23" t="n">
-        <v>1808.113743484023</v>
+        <v>1415.207491205228</v>
       </c>
       <c r="N23" t="n">
-        <v>2111.76101652457</v>
+        <v>1718.854764245775</v>
       </c>
       <c r="O23" t="n">
         <v>2396.319546081116</v>
@@ -6016,25 +6016,25 @@
         <v>4126.455644284109</v>
       </c>
       <c r="S23" t="n">
-        <v>4126.455644284109</v>
+        <v>4066.463358206859</v>
       </c>
       <c r="T23" t="n">
-        <v>4126.455644284109</v>
+        <v>4066.463358206859</v>
       </c>
       <c r="U23" t="n">
-        <v>3868.256522072797</v>
+        <v>3808.264235995546</v>
       </c>
       <c r="V23" t="n">
-        <v>3510.767107199046</v>
+        <v>3450.774821121796</v>
       </c>
       <c r="W23" t="n">
-        <v>3114.375757499393</v>
+        <v>3054.383471422143</v>
       </c>
       <c r="X23" t="n">
-        <v>2702.655758667141</v>
+        <v>2642.66347258989</v>
       </c>
       <c r="Y23" t="n">
-        <v>2297.318488622031</v>
+        <v>2642.66347258989</v>
       </c>
     </row>
     <row r="24">
@@ -6056,10 +6056,10 @@
         <v>312.5001483513333</v>
       </c>
       <c r="F24" t="n">
-        <v>218.8543180342375</v>
+        <v>218.8543180342374</v>
       </c>
       <c r="G24" t="n">
-        <v>125.842464955837</v>
+        <v>125.8424649558369</v>
       </c>
       <c r="H24" t="n">
         <v>82.5291128856822</v>
@@ -6068,28 +6068,28 @@
         <v>101.6776539330952</v>
       </c>
       <c r="J24" t="n">
-        <v>177.7521936544652</v>
+        <v>469.8546861240563</v>
       </c>
       <c r="K24" t="n">
-        <v>635.4366708033672</v>
+        <v>612.5783505000888</v>
       </c>
       <c r="L24" t="n">
-        <v>834.8736636888075</v>
+        <v>812.0153433855291</v>
       </c>
       <c r="M24" t="n">
-        <v>1070.752718628873</v>
+        <v>1047.894398325595</v>
       </c>
       <c r="N24" t="n">
-        <v>1315.216195071977</v>
+        <v>1292.357874768699</v>
       </c>
       <c r="O24" t="n">
-        <v>1535.241799480861</v>
+        <v>1512.383479177583</v>
       </c>
       <c r="P24" t="n">
-        <v>1708.690121554393</v>
+        <v>1685.831801251115</v>
       </c>
       <c r="Q24" t="n">
-        <v>1816.523862078392</v>
+        <v>1793.665541775114</v>
       </c>
       <c r="R24" t="n">
         <v>1856.490689818552</v>
@@ -6141,7 +6141,7 @@
         <v>292.0588376208276</v>
       </c>
       <c r="H25" t="n">
-        <v>156.0288639381428</v>
+        <v>156.0288639381427</v>
       </c>
       <c r="I25" t="n">
         <v>82.5291128856822</v>
@@ -6150,22 +6150,22 @@
         <v>200.5486058170991</v>
       </c>
       <c r="K25" t="n">
-        <v>443.7240585190079</v>
+        <v>526.5425751544482</v>
       </c>
       <c r="L25" t="n">
-        <v>925.6960859497938</v>
+        <v>1008.514602585234</v>
       </c>
       <c r="M25" t="n">
-        <v>1451.083648188563</v>
+        <v>1533.902164824003</v>
       </c>
       <c r="N25" t="n">
-        <v>1959.58590826317</v>
+        <v>2042.40442489861</v>
       </c>
       <c r="O25" t="n">
-        <v>2436.023668532036</v>
+        <v>2518.842185167477</v>
       </c>
       <c r="P25" t="n">
-        <v>2830.16752533826</v>
+        <v>2912.9860419737</v>
       </c>
       <c r="Q25" t="n">
         <v>3028.856600560192</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2016.79674655744</v>
+        <v>2433.166375338313</v>
       </c>
       <c r="C26" t="n">
-        <v>2016.79674655744</v>
+        <v>2006.265645351613</v>
       </c>
       <c r="D26" t="n">
-        <v>1613.947140795411</v>
+        <v>1582.973024536613</v>
       </c>
       <c r="E26" t="n">
-        <v>1187.970200943269</v>
+        <v>1156.996084684471</v>
       </c>
       <c r="F26" t="n">
-        <v>762.8460191326687</v>
+        <v>731.8719028738708</v>
       </c>
       <c r="G26" t="n">
-        <v>360.454296625556</v>
+        <v>329.4801803667581</v>
       </c>
       <c r="H26" t="n">
         <v>82.5291128856822</v>
@@ -6229,25 +6229,25 @@
         <v>646.4999879918923</v>
       </c>
       <c r="K26" t="n">
-        <v>1604.787826338413</v>
+        <v>1094.540157577097</v>
       </c>
       <c r="L26" t="n">
-        <v>2024.143766236498</v>
+        <v>1357.800711028643</v>
       </c>
       <c r="M26" t="n">
-        <v>3045.441538196815</v>
+        <v>1655.875085206271</v>
       </c>
       <c r="N26" t="n">
-        <v>3349.088811237361</v>
+        <v>1959.522358246818</v>
       </c>
       <c r="O26" t="n">
-        <v>3633.647340793907</v>
+        <v>2244.080887803364</v>
       </c>
       <c r="P26" t="n">
-        <v>3870.905049636582</v>
+        <v>3226.817483996096</v>
       </c>
       <c r="Q26" t="n">
-        <v>4041.247636815744</v>
+        <v>3889.008978537993</v>
       </c>
       <c r="R26" t="n">
         <v>4126.455644284109</v>
@@ -6256,22 +6256,22 @@
         <v>4066.463358206859</v>
       </c>
       <c r="T26" t="n">
-        <v>3854.062267678795</v>
+        <v>4066.463358206859</v>
       </c>
       <c r="U26" t="n">
-        <v>3595.863145467482</v>
+        <v>4066.463358206859</v>
       </c>
       <c r="V26" t="n">
-        <v>3238.373730593732</v>
+        <v>4066.463358206859</v>
       </c>
       <c r="W26" t="n">
-        <v>2841.982380894079</v>
+        <v>3670.072008507205</v>
       </c>
       <c r="X26" t="n">
-        <v>2841.982380894079</v>
+        <v>3258.352009674953</v>
       </c>
       <c r="Y26" t="n">
-        <v>2436.64511084897</v>
+        <v>2853.014739629843</v>
       </c>
     </row>
     <row r="27">
@@ -6293,10 +6293,10 @@
         <v>312.5001483513333</v>
       </c>
       <c r="F27" t="n">
-        <v>218.8543180342375</v>
+        <v>218.8543180342374</v>
       </c>
       <c r="G27" t="n">
-        <v>125.842464955837</v>
+        <v>125.8424649558369</v>
       </c>
       <c r="H27" t="n">
         <v>82.5291128856822</v>
@@ -6305,28 +6305,28 @@
         <v>101.6776539330952</v>
       </c>
       <c r="J27" t="n">
-        <v>177.7521936544652</v>
+        <v>469.8546861240563</v>
       </c>
       <c r="K27" t="n">
-        <v>320.4758580304978</v>
+        <v>612.5783505000888</v>
       </c>
       <c r="L27" t="n">
-        <v>519.912850915938</v>
+        <v>812.0153433855291</v>
       </c>
       <c r="M27" t="n">
-        <v>755.7919058560035</v>
+        <v>1047.894398325595</v>
       </c>
       <c r="N27" t="n">
-        <v>1000.255382299108</v>
+        <v>1292.357874768699</v>
       </c>
       <c r="O27" t="n">
-        <v>1220.280986707992</v>
+        <v>1512.383479177583</v>
       </c>
       <c r="P27" t="n">
-        <v>1708.690121554393</v>
+        <v>1685.831801251115</v>
       </c>
       <c r="Q27" t="n">
-        <v>1816.523862078392</v>
+        <v>1793.665541775114</v>
       </c>
       <c r="R27" t="n">
         <v>1856.490689818552</v>
@@ -6378,7 +6378,7 @@
         <v>292.0588376208276</v>
       </c>
       <c r="H28" t="n">
-        <v>156.0288639381428</v>
+        <v>156.0288639381427</v>
       </c>
       <c r="I28" t="n">
         <v>82.5291128856822</v>
@@ -6396,13 +6396,13 @@
         <v>1533.902164824003</v>
       </c>
       <c r="N28" t="n">
-        <v>1959.58590826317</v>
+        <v>2042.40442489861</v>
       </c>
       <c r="O28" t="n">
-        <v>2436.023668532036</v>
+        <v>2518.842185167477</v>
       </c>
       <c r="P28" t="n">
-        <v>2830.16752533826</v>
+        <v>2912.9860419737</v>
       </c>
       <c r="Q28" t="n">
         <v>3028.856600560192</v>
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1613.039369934368</v>
+        <v>2010.414017770296</v>
       </c>
       <c r="C29" t="n">
-        <v>1186.138639947668</v>
+        <v>1612.115579799811</v>
       </c>
       <c r="D29" t="n">
-        <v>762.8460191326687</v>
+        <v>1188.822958984811</v>
       </c>
       <c r="E29" t="n">
         <v>762.8460191326687</v>
@@ -6469,46 +6469,46 @@
         <v>1213.058607630787</v>
       </c>
       <c r="L29" t="n">
-        <v>2234.356379591104</v>
+        <v>1476.319161082333</v>
       </c>
       <c r="M29" t="n">
-        <v>2893.202879919063</v>
+        <v>1774.393535259962</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.85015295961</v>
+        <v>2078.040808300509</v>
       </c>
       <c r="O29" t="n">
-        <v>3481.408682516156</v>
+        <v>2362.599337857055</v>
       </c>
       <c r="P29" t="n">
-        <v>3718.666391358831</v>
+        <v>3345.335934049786</v>
       </c>
       <c r="Q29" t="n">
-        <v>3889.008978537993</v>
+        <v>4007.527428591683</v>
       </c>
       <c r="R29" t="n">
         <v>4126.455644284109</v>
       </c>
       <c r="S29" t="n">
-        <v>4074.425980416041</v>
+        <v>4066.463358206859</v>
       </c>
       <c r="T29" t="n">
-        <v>3862.024889887977</v>
+        <v>3854.062267678795</v>
       </c>
       <c r="U29" t="n">
-        <v>3603.825767676664</v>
+        <v>3595.863145467482</v>
       </c>
       <c r="V29" t="n">
-        <v>3246.336352802914</v>
+        <v>3238.373730593732</v>
       </c>
       <c r="W29" t="n">
-        <v>2849.945003103261</v>
+        <v>2841.982380894079</v>
       </c>
       <c r="X29" t="n">
-        <v>2438.225004271008</v>
+        <v>2430.262382061826</v>
       </c>
       <c r="Y29" t="n">
-        <v>2032.887734225898</v>
+        <v>2430.262382061826</v>
       </c>
     </row>
     <row r="30">
@@ -6530,10 +6530,10 @@
         <v>312.5001483513333</v>
       </c>
       <c r="F30" t="n">
-        <v>218.8543180342375</v>
+        <v>218.8543180342374</v>
       </c>
       <c r="G30" t="n">
-        <v>125.842464955837</v>
+        <v>125.8424649558369</v>
       </c>
       <c r="H30" t="n">
         <v>82.5291128856822</v>
@@ -6542,28 +6542,28 @@
         <v>101.6776539330952</v>
       </c>
       <c r="J30" t="n">
-        <v>177.7521936544652</v>
+        <v>469.8546861240563</v>
       </c>
       <c r="K30" t="n">
-        <v>320.4758580304978</v>
+        <v>612.5783505000888</v>
       </c>
       <c r="L30" t="n">
-        <v>519.912850915938</v>
+        <v>812.0153433855291</v>
       </c>
       <c r="M30" t="n">
-        <v>1070.752718628873</v>
+        <v>1047.894398325595</v>
       </c>
       <c r="N30" t="n">
-        <v>1315.216195071977</v>
+        <v>1292.357874768699</v>
       </c>
       <c r="O30" t="n">
-        <v>1535.241799480861</v>
+        <v>1512.383479177583</v>
       </c>
       <c r="P30" t="n">
-        <v>1708.690121554393</v>
+        <v>1685.831801251115</v>
       </c>
       <c r="Q30" t="n">
-        <v>1816.523862078392</v>
+        <v>1793.665541775114</v>
       </c>
       <c r="R30" t="n">
         <v>1856.490689818552</v>
@@ -6615,28 +6615,28 @@
         <v>292.0588376208276</v>
       </c>
       <c r="H31" t="n">
-        <v>156.0288639381428</v>
+        <v>156.0288639381427</v>
       </c>
       <c r="I31" t="n">
         <v>82.5291128856822</v>
       </c>
       <c r="J31" t="n">
-        <v>200.5486058170991</v>
+        <v>122.6268891688782</v>
       </c>
       <c r="K31" t="n">
-        <v>526.5425751544482</v>
+        <v>443.7240585190079</v>
       </c>
       <c r="L31" t="n">
-        <v>1008.514602585234</v>
+        <v>925.6960859497938</v>
       </c>
       <c r="M31" t="n">
-        <v>1533.902164824003</v>
+        <v>1451.083648188563</v>
       </c>
       <c r="N31" t="n">
-        <v>2042.40442489861</v>
+        <v>1959.58590826317</v>
       </c>
       <c r="O31" t="n">
-        <v>2518.842185167477</v>
+        <v>2436.023668532036</v>
       </c>
       <c r="P31" t="n">
         <v>2830.16752533826</v>
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2037.239761610411</v>
+        <v>2464.140491597111</v>
       </c>
       <c r="C32" t="n">
         <v>2037.239761610411</v>
@@ -6703,19 +6703,19 @@
         <v>646.4999879918923</v>
       </c>
       <c r="K32" t="n">
-        <v>1604.787826338413</v>
+        <v>1246.778815854848</v>
       </c>
       <c r="L32" t="n">
-        <v>1868.04837978996</v>
+        <v>1510.039369306394</v>
       </c>
       <c r="M32" t="n">
-        <v>2166.122753967588</v>
+        <v>1808.113743484023</v>
       </c>
       <c r="N32" t="n">
-        <v>2469.770027008135</v>
+        <v>2111.76101652457</v>
       </c>
       <c r="O32" t="n">
-        <v>3141.798433431172</v>
+        <v>2396.319546081116</v>
       </c>
       <c r="P32" t="n">
         <v>3379.056142273847</v>
@@ -6727,25 +6727,25 @@
         <v>4126.455644284109</v>
       </c>
       <c r="S32" t="n">
-        <v>4126.455644284109</v>
+        <v>4066.463358206859</v>
       </c>
       <c r="T32" t="n">
-        <v>3914.054553756046</v>
+        <v>3854.062267678795</v>
       </c>
       <c r="U32" t="n">
-        <v>3655.855431544733</v>
+        <v>3677.589110174126</v>
       </c>
       <c r="V32" t="n">
-        <v>3298.366016670982</v>
+        <v>3677.589110174126</v>
       </c>
       <c r="W32" t="n">
-        <v>3274.145394779303</v>
+        <v>3281.197760474473</v>
       </c>
       <c r="X32" t="n">
-        <v>2862.42539594705</v>
+        <v>2869.47776164222</v>
       </c>
       <c r="Y32" t="n">
-        <v>2457.088125901941</v>
+        <v>2464.140491597111</v>
       </c>
     </row>
     <row r="33">
@@ -6767,40 +6767,40 @@
         <v>312.5001483513333</v>
       </c>
       <c r="F33" t="n">
-        <v>218.8543180342375</v>
+        <v>218.8543180342374</v>
       </c>
       <c r="G33" t="n">
-        <v>125.842464955837</v>
+        <v>125.8424649558369</v>
       </c>
       <c r="H33" t="n">
         <v>82.5291128856822</v>
       </c>
       <c r="I33" t="n">
-        <v>101.6776539330952</v>
+        <v>125.134959777507</v>
       </c>
       <c r="J33" t="n">
-        <v>177.7521936544652</v>
+        <v>387.2575061424281</v>
       </c>
       <c r="K33" t="n">
-        <v>320.4758580304978</v>
+        <v>529.9811705184607</v>
       </c>
       <c r="L33" t="n">
-        <v>519.912850915938</v>
+        <v>729.418163403901</v>
       </c>
       <c r="M33" t="n">
-        <v>755.7919058560035</v>
+        <v>965.2972183439666</v>
       </c>
       <c r="N33" t="n">
-        <v>1315.216195071977</v>
+        <v>1209.760694787071</v>
       </c>
       <c r="O33" t="n">
-        <v>1535.241799480861</v>
+        <v>1429.786299195955</v>
       </c>
       <c r="P33" t="n">
-        <v>1708.690121554393</v>
+        <v>1603.234621269487</v>
       </c>
       <c r="Q33" t="n">
-        <v>1816.523862078392</v>
+        <v>1711.068361793486</v>
       </c>
       <c r="R33" t="n">
         <v>1856.490689818552</v>
@@ -6852,7 +6852,7 @@
         <v>292.0588376208276</v>
       </c>
       <c r="H34" t="n">
-        <v>156.0288639381428</v>
+        <v>156.0288639381427</v>
       </c>
       <c r="I34" t="n">
         <v>82.5291128856822</v>
@@ -6864,7 +6864,7 @@
         <v>526.5425751544482</v>
       </c>
       <c r="L34" t="n">
-        <v>925.6960859497938</v>
+        <v>1008.514602585234</v>
       </c>
       <c r="M34" t="n">
         <v>1451.083648188563</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1317.434847096683</v>
+        <v>967.6986346882109</v>
       </c>
       <c r="C35" t="n">
-        <v>890.5341171099833</v>
+        <v>967.6986346882109</v>
       </c>
       <c r="D35" t="n">
-        <v>467.2414962949836</v>
+        <v>967.6986346882109</v>
       </c>
       <c r="E35" t="n">
-        <v>41.2645564428411</v>
+        <v>541.7216948360684</v>
       </c>
       <c r="F35" t="n">
-        <v>41.2645564428411</v>
+        <v>541.7216948360684</v>
       </c>
       <c r="G35" t="n">
-        <v>41.2645564428411</v>
+        <v>319.1897401827149</v>
       </c>
       <c r="H35" t="n">
         <v>41.2645564428411</v>
@@ -6940,7 +6940,7 @@
         <v>213.506212841425</v>
       </c>
       <c r="K35" t="n">
-        <v>420.8787884255855</v>
+        <v>420.8787884255856</v>
       </c>
       <c r="L35" t="n">
         <v>684.139341877132</v>
@@ -6955,7 +6955,7 @@
         <v>1570.419518651853</v>
       </c>
       <c r="P35" t="n">
-        <v>1807.677227494527</v>
+        <v>1807.677227494528</v>
       </c>
       <c r="Q35" t="n">
         <v>1978.01981467369</v>
@@ -6964,25 +6964,25 @@
         <v>2063.227822142055</v>
       </c>
       <c r="S35" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064804</v>
       </c>
       <c r="T35" t="n">
-        <v>1850.826731613991</v>
+        <v>2003.235536064804</v>
       </c>
       <c r="U35" t="n">
-        <v>1592.627609402678</v>
+        <v>1745.036413853491</v>
       </c>
       <c r="V35" t="n">
-        <v>1592.627609402678</v>
+        <v>1387.546998979741</v>
       </c>
       <c r="W35" t="n">
-        <v>1592.627609402678</v>
+        <v>1387.546998979741</v>
       </c>
       <c r="X35" t="n">
-        <v>1317.434847096683</v>
+        <v>1387.546998979741</v>
       </c>
       <c r="Y35" t="n">
-        <v>1317.434847096683</v>
+        <v>1387.546998979741</v>
       </c>
     </row>
     <row r="36">
@@ -7007,28 +7007,28 @@
         <v>177.5897615913963</v>
       </c>
       <c r="G36" t="n">
-        <v>84.57790851299586</v>
+        <v>84.57790851299585</v>
       </c>
       <c r="H36" t="n">
         <v>41.2645564428411</v>
       </c>
       <c r="I36" t="n">
-        <v>83.87040333466589</v>
+        <v>83.87040333466591</v>
       </c>
       <c r="J36" t="n">
-        <v>159.944943056036</v>
+        <v>345.9929496995871</v>
       </c>
       <c r="K36" t="n">
-        <v>302.6686074320685</v>
+        <v>488.7166140756196</v>
       </c>
       <c r="L36" t="n">
-        <v>502.1056003175087</v>
+        <v>688.1536069610599</v>
       </c>
       <c r="M36" t="n">
-        <v>924.0326619011262</v>
+        <v>924.0326619011256</v>
       </c>
       <c r="N36" t="n">
-        <v>1168.496138344231</v>
+        <v>1168.49613834423</v>
       </c>
       <c r="O36" t="n">
         <v>1388.521742753114</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>385.0988937893646</v>
+        <v>422.6560554034261</v>
       </c>
       <c r="C37" t="n">
-        <v>213.1263306682807</v>
+        <v>422.6560554034261</v>
       </c>
       <c r="D37" t="n">
-        <v>213.1263306682807</v>
+        <v>422.6560554034261</v>
       </c>
       <c r="E37" t="n">
-        <v>213.1263306682807</v>
+        <v>422.6560554034261</v>
       </c>
       <c r="F37" t="n">
-        <v>41.2645564428411</v>
+        <v>250.7942811779865</v>
       </c>
       <c r="G37" t="n">
-        <v>41.2645564428411</v>
+        <v>250.7942811779865</v>
       </c>
       <c r="H37" t="n">
-        <v>41.2645564428411</v>
+        <v>114.7643074953016</v>
       </c>
       <c r="I37" t="n">
         <v>41.2645564428411</v>
@@ -7098,16 +7098,16 @@
         <v>159.284049374258</v>
       </c>
       <c r="K37" t="n">
-        <v>269.333084866896</v>
+        <v>485.278018711607</v>
       </c>
       <c r="L37" t="n">
-        <v>751.3051122976818</v>
+        <v>967.2500461423929</v>
       </c>
       <c r="M37" t="n">
-        <v>863.1571940736288</v>
+        <v>1079.10212791834</v>
       </c>
       <c r="N37" t="n">
-        <v>1371.659454148236</v>
+        <v>1189.571465151067</v>
       </c>
       <c r="O37" t="n">
         <v>1470.3948901139</v>
@@ -7122,25 +7122,25 @@
         <v>2063.227822142055</v>
       </c>
       <c r="S37" t="n">
-        <v>1908.315665406753</v>
+        <v>2063.227822142055</v>
       </c>
       <c r="T37" t="n">
-        <v>1690.706232392547</v>
+        <v>1823.620742834525</v>
       </c>
       <c r="U37" t="n">
-        <v>1410.569429873276</v>
+        <v>1543.483940315253</v>
       </c>
       <c r="V37" t="n">
-        <v>1128.857962481304</v>
+        <v>1261.772472923282</v>
       </c>
       <c r="W37" t="n">
-        <v>854.0055586538175</v>
+        <v>986.920069095795</v>
       </c>
       <c r="X37" t="n">
-        <v>611.4416620996226</v>
+        <v>744.3561725416001</v>
       </c>
       <c r="Y37" t="n">
-        <v>385.0988937893646</v>
+        <v>612.8220241154918</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1718.973811562253</v>
+        <v>1606.844186365152</v>
       </c>
       <c r="C38" t="n">
-        <v>1292.073081575553</v>
+        <v>1179.943456378452</v>
       </c>
       <c r="D38" t="n">
-        <v>868.7804607605536</v>
+        <v>1179.943456378452</v>
       </c>
       <c r="E38" t="n">
         <v>868.7804607605536</v>
@@ -7165,19 +7165,19 @@
         <v>443.6562789499538</v>
       </c>
       <c r="G38" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="H38" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="I38" t="n">
-        <v>80.64296560125339</v>
+        <v>80.64296560125331</v>
       </c>
       <c r="J38" t="n">
-        <v>213.5062128414251</v>
+        <v>213.5062128414249</v>
       </c>
       <c r="K38" t="n">
-        <v>420.8787884255856</v>
+        <v>420.8787884255855</v>
       </c>
       <c r="L38" t="n">
         <v>684.139341877132</v>
@@ -7192,34 +7192,34 @@
         <v>1570.419518651853</v>
       </c>
       <c r="P38" t="n">
-        <v>1807.677227494527</v>
+        <v>1807.677227494528</v>
       </c>
       <c r="Q38" t="n">
-        <v>1978.01981467369</v>
+        <v>1978.019814673691</v>
       </c>
       <c r="R38" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="S38" t="n">
-        <v>2003.235536064804</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="T38" t="n">
-        <v>2003.235536064804</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="U38" t="n">
-        <v>2003.235536064804</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="V38" t="n">
-        <v>2003.235536064804</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="W38" t="n">
-        <v>1718.973811562253</v>
+        <v>1606.844186365152</v>
       </c>
       <c r="X38" t="n">
-        <v>1718.973811562253</v>
+        <v>1606.844186365152</v>
       </c>
       <c r="Y38" t="n">
-        <v>1718.973811562253</v>
+        <v>1606.844186365152</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>84.57790851299586</v>
       </c>
       <c r="H39" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="I39" t="n">
-        <v>83.87040333466589</v>
+        <v>60.41309749025409</v>
       </c>
       <c r="J39" t="n">
-        <v>159.944943056036</v>
+        <v>428.5901296812153</v>
       </c>
       <c r="K39" t="n">
-        <v>302.6686074320685</v>
+        <v>571.3137940572478</v>
       </c>
       <c r="L39" t="n">
-        <v>502.1056003175087</v>
+        <v>770.7507869426881</v>
       </c>
       <c r="M39" t="n">
-        <v>737.9846552575743</v>
+        <v>1006.629841882754</v>
       </c>
       <c r="N39" t="n">
-        <v>982.4481317006787</v>
+        <v>1251.093318325858</v>
       </c>
       <c r="O39" t="n">
-        <v>1202.473736109563</v>
+        <v>1471.118922734742</v>
       </c>
       <c r="P39" t="n">
-        <v>1375.922058183095</v>
+        <v>1644.567244808274</v>
       </c>
       <c r="Q39" t="n">
-        <v>1775.259305635551</v>
+        <v>1752.400985332273</v>
       </c>
       <c r="R39" t="n">
         <v>1815.226133375711</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>355.3388040463107</v>
+        <v>213.1263306682807</v>
       </c>
       <c r="C40" t="n">
-        <v>183.3662409252267</v>
+        <v>213.1263306682807</v>
       </c>
       <c r="D40" t="n">
-        <v>183.3662409252267</v>
+        <v>213.1263306682807</v>
       </c>
       <c r="E40" t="n">
-        <v>41.2645564428411</v>
+        <v>213.1263306682807</v>
       </c>
       <c r="F40" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="G40" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="H40" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="I40" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="J40" t="n">
-        <v>81.3623327260371</v>
+        <v>159.284049374258</v>
       </c>
       <c r="K40" t="n">
-        <v>407.3563020633862</v>
+        <v>485.2780187116071</v>
       </c>
       <c r="L40" t="n">
-        <v>512.9394359030071</v>
+        <v>967.250046142393</v>
       </c>
       <c r="M40" t="n">
-        <v>1023.588321883166</v>
+        <v>1079.10212791834</v>
       </c>
       <c r="N40" t="n">
-        <v>1532.090581957773</v>
+        <v>1189.571465151067</v>
       </c>
       <c r="O40" t="n">
-        <v>1630.826017923436</v>
+        <v>1470.394890113901</v>
       </c>
       <c r="P40" t="n">
-        <v>2015.912244298022</v>
+        <v>1864.538746920123</v>
       </c>
       <c r="Q40" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="R40" t="n">
-        <v>2055.465378692325</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="S40" t="n">
-        <v>1900.553221957023</v>
+        <v>1908.315665406754</v>
       </c>
       <c r="T40" t="n">
-        <v>1660.946142649493</v>
+        <v>1668.708586099224</v>
       </c>
       <c r="U40" t="n">
-        <v>1380.809340130222</v>
+        <v>1388.571783579952</v>
       </c>
       <c r="V40" t="n">
-        <v>1099.097872738251</v>
+        <v>1106.860316187981</v>
       </c>
       <c r="W40" t="n">
-        <v>824.2454689107635</v>
+        <v>832.0079123604942</v>
       </c>
       <c r="X40" t="n">
-        <v>581.6815723565686</v>
+        <v>589.4440158062993</v>
       </c>
       <c r="Y40" t="n">
-        <v>355.3388040463107</v>
+        <v>363.1012474960413</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>891.4579072445408</v>
+        <v>1569.998265315427</v>
       </c>
       <c r="C41" t="n">
-        <v>464.5571772578409</v>
+        <v>1569.998265315427</v>
       </c>
       <c r="D41" t="n">
-        <v>41.2645564428411</v>
+        <v>1146.705644500427</v>
       </c>
       <c r="E41" t="n">
-        <v>41.2645564428411</v>
+        <v>1146.705644500427</v>
       </c>
       <c r="F41" t="n">
-        <v>41.2645564428411</v>
+        <v>721.5814626898276</v>
       </c>
       <c r="G41" t="n">
-        <v>41.2645564428411</v>
+        <v>319.1897401827149</v>
       </c>
       <c r="H41" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284112</v>
       </c>
       <c r="I41" t="n">
-        <v>80.64296560125339</v>
+        <v>80.64296560125344</v>
       </c>
       <c r="J41" t="n">
-        <v>213.506212841425</v>
+        <v>213.5062128414251</v>
       </c>
       <c r="K41" t="n">
-        <v>420.8787884255853</v>
+        <v>420.8787884255858</v>
       </c>
       <c r="L41" t="n">
-        <v>684.1393418771318</v>
+        <v>684.1393418771322</v>
       </c>
       <c r="M41" t="n">
-        <v>982.21371605476</v>
+        <v>982.2137160547608</v>
       </c>
       <c r="N41" t="n">
-        <v>1285.860989095307</v>
+        <v>1285.860989095308</v>
       </c>
       <c r="O41" t="n">
-        <v>1570.419518651853</v>
+        <v>1570.419518651854</v>
       </c>
       <c r="P41" t="n">
-        <v>1807.677227494527</v>
+        <v>1807.677227494529</v>
       </c>
       <c r="Q41" t="n">
-        <v>1978.01981467369</v>
+        <v>1978.019814673691</v>
       </c>
       <c r="R41" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="S41" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064806</v>
       </c>
       <c r="T41" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064806</v>
       </c>
       <c r="U41" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064806</v>
       </c>
       <c r="V41" t="n">
-        <v>1707.697621235724</v>
+        <v>2003.235536064806</v>
       </c>
       <c r="W41" t="n">
-        <v>1311.306271536071</v>
+        <v>1606.844186365152</v>
       </c>
       <c r="X41" t="n">
-        <v>1311.306271536071</v>
+        <v>1569.998265315427</v>
       </c>
       <c r="Y41" t="n">
-        <v>1311.306271536071</v>
+        <v>1569.998265315427</v>
       </c>
     </row>
     <row r="42">
@@ -7484,25 +7484,25 @@
         <v>84.57790851299586</v>
       </c>
       <c r="H42" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284112</v>
       </c>
       <c r="I42" t="n">
-        <v>83.87040333466589</v>
+        <v>60.41309749025409</v>
       </c>
       <c r="J42" t="n">
-        <v>345.9929496995878</v>
+        <v>345.992949699587</v>
       </c>
       <c r="K42" t="n">
-        <v>488.7166140756204</v>
+        <v>488.7166140756196</v>
       </c>
       <c r="L42" t="n">
-        <v>688.1536069610606</v>
+        <v>688.1536069610599</v>
       </c>
       <c r="M42" t="n">
-        <v>924.0326619011262</v>
+        <v>924.0326619011256</v>
       </c>
       <c r="N42" t="n">
-        <v>1168.496138344231</v>
+        <v>1168.49613834423</v>
       </c>
       <c r="O42" t="n">
         <v>1388.521742753114</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>597.9027006005056</v>
+        <v>422.7668442990705</v>
       </c>
       <c r="C43" t="n">
-        <v>425.9301374794215</v>
+        <v>250.7942811779865</v>
       </c>
       <c r="D43" t="n">
-        <v>425.9301374794215</v>
+        <v>250.7942811779865</v>
       </c>
       <c r="E43" t="n">
-        <v>416.1777412426422</v>
+        <v>250.7942811779865</v>
       </c>
       <c r="F43" t="n">
-        <v>416.1777412426422</v>
+        <v>250.7942811779865</v>
       </c>
       <c r="G43" t="n">
         <v>250.7942811779865</v>
@@ -7566,55 +7566,55 @@
         <v>114.7643074953017</v>
       </c>
       <c r="I43" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284112</v>
       </c>
       <c r="J43" t="n">
-        <v>81.3623327260371</v>
+        <v>159.284049374258</v>
       </c>
       <c r="K43" t="n">
-        <v>407.3563020633862</v>
+        <v>485.2780187116071</v>
       </c>
       <c r="L43" t="n">
-        <v>889.3283294941721</v>
+        <v>590.8611525512281</v>
       </c>
       <c r="M43" t="n">
-        <v>1001.180411270119</v>
+        <v>1101.510038531387</v>
       </c>
       <c r="N43" t="n">
-        <v>1509.682671344726</v>
+        <v>1610.012298605994</v>
       </c>
       <c r="O43" t="n">
-        <v>1934.524592065106</v>
+        <v>1708.747734571658</v>
       </c>
       <c r="P43" t="n">
-        <v>2015.912244298022</v>
+        <v>1864.538746920124</v>
       </c>
       <c r="Q43" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="R43" t="n">
-        <v>2055.465378692325</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="S43" t="n">
-        <v>1900.553221957023</v>
+        <v>1967.981262209783</v>
       </c>
       <c r="T43" t="n">
-        <v>1660.946142649493</v>
+        <v>1728.374182902253</v>
       </c>
       <c r="U43" t="n">
-        <v>1380.809340130222</v>
+        <v>1448.237380382981</v>
       </c>
       <c r="V43" t="n">
-        <v>1099.097872738251</v>
+        <v>1166.52591299101</v>
       </c>
       <c r="W43" t="n">
-        <v>824.2454689107635</v>
+        <v>891.6735091635234</v>
       </c>
       <c r="X43" t="n">
-        <v>824.2454689107635</v>
+        <v>649.1096126093285</v>
       </c>
       <c r="Y43" t="n">
-        <v>597.9027006005056</v>
+        <v>422.7668442990705</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1081.617317907988</v>
+        <v>571.3072849885591</v>
       </c>
       <c r="C44" t="n">
-        <v>1081.617317907988</v>
+        <v>144.4065550018592</v>
       </c>
       <c r="D44" t="n">
-        <v>868.7804607605536</v>
+        <v>41.26455644284112</v>
       </c>
       <c r="E44" t="n">
-        <v>868.7804607605536</v>
+        <v>41.26455644284112</v>
       </c>
       <c r="F44" t="n">
-        <v>443.6562789499538</v>
+        <v>41.26455644284112</v>
       </c>
       <c r="G44" t="n">
-        <v>41.26455644284111</v>
+        <v>41.26455644284112</v>
       </c>
       <c r="H44" t="n">
-        <v>41.26455644284111</v>
+        <v>41.26455644284112</v>
       </c>
       <c r="I44" t="n">
-        <v>80.64296560125331</v>
+        <v>80.64296560125342</v>
       </c>
       <c r="J44" t="n">
-        <v>213.5062128414249</v>
+        <v>213.5062128414251</v>
       </c>
       <c r="K44" t="n">
-        <v>420.8787884255855</v>
+        <v>420.8787884255857</v>
       </c>
       <c r="L44" t="n">
-        <v>684.1393418771319</v>
+        <v>684.1393418771322</v>
       </c>
       <c r="M44" t="n">
-        <v>982.2137160547604</v>
+        <v>982.2137160547609</v>
       </c>
       <c r="N44" t="n">
-        <v>1285.860989095307</v>
+        <v>1285.860989095308</v>
       </c>
       <c r="O44" t="n">
         <v>1570.419518651854</v>
@@ -7675,25 +7675,25 @@
         <v>2063.227822142056</v>
       </c>
       <c r="S44" t="n">
-        <v>2063.227822142056</v>
+        <v>2003.235536064806</v>
       </c>
       <c r="T44" t="n">
-        <v>1850.826731613992</v>
+        <v>2003.235536064806</v>
       </c>
       <c r="U44" t="n">
-        <v>1850.826731613992</v>
+        <v>1745.036413853493</v>
       </c>
       <c r="V44" t="n">
-        <v>1493.337316740241</v>
+        <v>1387.546998979742</v>
       </c>
       <c r="W44" t="n">
-        <v>1493.337316740241</v>
+        <v>991.1556492800892</v>
       </c>
       <c r="X44" t="n">
-        <v>1081.617317907988</v>
+        <v>991.1556492800892</v>
       </c>
       <c r="Y44" t="n">
-        <v>1081.617317907988</v>
+        <v>991.1556492800892</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>84.57790851299586</v>
       </c>
       <c r="H45" t="n">
-        <v>41.26455644284111</v>
+        <v>41.26455644284112</v>
       </c>
       <c r="I45" t="n">
-        <v>60.41309749025407</v>
+        <v>83.87040333466592</v>
       </c>
       <c r="J45" t="n">
-        <v>136.4876372116241</v>
+        <v>345.992949699587</v>
       </c>
       <c r="K45" t="n">
-        <v>279.2113015876566</v>
+        <v>488.7166140756196</v>
       </c>
       <c r="L45" t="n">
-        <v>478.6482944730969</v>
+        <v>688.1536069610599</v>
       </c>
       <c r="M45" t="n">
-        <v>714.5273494131625</v>
+        <v>924.0326619011256</v>
       </c>
       <c r="N45" t="n">
-        <v>983.3283570578611</v>
+        <v>1168.49613834423</v>
       </c>
       <c r="O45" t="n">
-        <v>1493.97724303802</v>
+        <v>1388.521742753114</v>
       </c>
       <c r="P45" t="n">
-        <v>1667.425565111552</v>
+        <v>1561.970064826646</v>
       </c>
       <c r="Q45" t="n">
-        <v>1775.259305635551</v>
+        <v>1669.803805350645</v>
       </c>
       <c r="R45" t="n">
         <v>1815.226133375711</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>589.4440158062993</v>
+        <v>443.4645404331867</v>
       </c>
       <c r="C46" t="n">
-        <v>585.9728282766554</v>
+        <v>443.4645404331867</v>
       </c>
       <c r="D46" t="n">
-        <v>422.6560554034261</v>
+        <v>280.1477675599574</v>
       </c>
       <c r="E46" t="n">
-        <v>422.6560554034261</v>
+        <v>280.1477675599574</v>
       </c>
       <c r="F46" t="n">
-        <v>250.7942811779865</v>
+        <v>280.1477675599574</v>
       </c>
       <c r="G46" t="n">
-        <v>250.7942811779865</v>
+        <v>114.7643074953017</v>
       </c>
       <c r="H46" t="n">
         <v>114.7643074953017</v>
       </c>
       <c r="I46" t="n">
-        <v>41.26455644284111</v>
+        <v>41.26455644284112</v>
       </c>
       <c r="J46" t="n">
-        <v>159.284049374258</v>
+        <v>81.36233272603715</v>
       </c>
       <c r="K46" t="n">
-        <v>485.278018711607</v>
+        <v>160.0736929493642</v>
       </c>
       <c r="L46" t="n">
-        <v>967.2500461423929</v>
+        <v>438.9356857414743</v>
       </c>
       <c r="M46" t="n">
-        <v>1477.898932122552</v>
+        <v>949.5845717216332</v>
       </c>
       <c r="N46" t="n">
-        <v>1588.368269355279</v>
+        <v>1458.08683179624</v>
       </c>
       <c r="O46" t="n">
-        <v>1934.524592065107</v>
+        <v>1934.524592065108</v>
       </c>
       <c r="P46" t="n">
-        <v>2015.912244298022</v>
+        <v>2015.912244298023</v>
       </c>
       <c r="Q46" t="n">
         <v>2063.227822142056</v>
@@ -7833,25 +7833,25 @@
         <v>2063.227822142056</v>
       </c>
       <c r="S46" t="n">
-        <v>1908.315665406754</v>
+        <v>1988.678958343899</v>
       </c>
       <c r="T46" t="n">
-        <v>1668.708586099224</v>
+        <v>1749.071879036369</v>
       </c>
       <c r="U46" t="n">
-        <v>1388.571783579952</v>
+        <v>1468.935076517098</v>
       </c>
       <c r="V46" t="n">
-        <v>1106.860316187981</v>
+        <v>1187.223609125127</v>
       </c>
       <c r="W46" t="n">
-        <v>832.0079123604942</v>
+        <v>912.3712052976396</v>
       </c>
       <c r="X46" t="n">
-        <v>589.4440158062993</v>
+        <v>669.8073087434447</v>
       </c>
       <c r="Y46" t="n">
-        <v>589.4440158062993</v>
+        <v>443.4645404331867</v>
       </c>
     </row>
   </sheetData>
@@ -8768,13 +8768,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3.786787553687816</v>
+        <v>211.6215277656193</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>314.3554475704227</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>30.32751975482151</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>402.8250547517289</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>196.8918062658626</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>187.9272794379303</v>
       </c>
       <c r="K15" t="n">
-        <v>23.08921242755366</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>9.019964299257325</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>402.825054751729</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>197.6634036015518</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>187.9272794379303</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>318.1422351241105</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>30.32751975482151</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>402.825054751729</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>248.5933899314407</v>
       </c>
       <c r="O19" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>187.9272794379303</v>
       </c>
       <c r="K21" t="n">
-        <v>318.1422351241104</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,19 +9561,19 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>30.32751975482151</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>183.9272616133028</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>315.9153581548562</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>34.06081638794069</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>396.8750023018131</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
@@ -9716,10 +9716,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>318.1422351241105</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>23.08921242755324</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>166.1253459379615</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>69.24745529541275</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9877,13 +9877,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>243.098579799034</v>
       </c>
       <c r="L26" t="n">
-        <v>157.6721075217556</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>730.5286846289785</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.1422351241104</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>23.08921242755324</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10044,7 +10044,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>318.3983901075151</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
@@ -10053,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>69.24745529541275</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10117,10 +10117,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>765.6941601098694</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>364.4162890407383</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>34.06081638794035</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>318.1422351241107</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>23.08921242755324</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>244.834150633134</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
@@ -10287,7 +10287,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>232.260290846331</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
         <v>152.9025226039384</v>
@@ -10351,7 +10351,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>396.875002301813</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>391.3837140065569</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>187.9272794379303</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>318.1422351241106</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10512,10 +10512,10 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>296.5357342987118</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>334.0575392195772</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10664,7 +10664,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>187.9272794379303</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>187.9272794379312</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10746,7 +10746,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>31.65421744374852</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10755,10 +10755,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>183.9272616133022</v>
       </c>
       <c r="P37" t="n">
         <v>315.9153581548562</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>294.4479867964215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>23.08921242755347</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>402.8250547517288</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>183.9272616133028</v>
       </c>
       <c r="P40" t="n">
-        <v>306.7662365067371</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>187.9272794379312</v>
+        <v>211.621527765619</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>402.8250547517291</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>329.4004896512285</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>75.15490920762694</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>187.9272794379303</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,10 +11387,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>24.58336485009519</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>293.558870274015</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,22 +11454,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>175.0291504570598</v>
       </c>
       <c r="M46" t="n">
-        <v>402.825054751729</v>
+        <v>402.8250547517292</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>249.9200876203683</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,13 +23266,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>332.2085448148945</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>139.7029608470231</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>255.6171309891995</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -23326,7 +23326,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6797840289582</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7296254640092</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.669673945858</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>72.76475354193595</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>7.684819015232492</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.2110085144546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3354344940787</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>39.89882237215033</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -23509,10 +23509,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3678052820416</v>
+        <v>342.4182860260827</v>
       </c>
       <c r="H14" t="n">
-        <v>275.145931902475</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6171309891995</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.37923068601953</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7296254640092</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>72.76475354193593</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>153.3630351679486</v>
+        <v>12.00047784336695</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3354344940787</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>205.5277573754641</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>189.0370401844588</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>157.5801385626679</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3678052820416</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>275.145931902475</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>210.2770796227834</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6171309891995</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>98.34952919335393</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7296254640092</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>134.669673945858</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.76475354193593</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.684819015232499</v>
+        <v>7.684819015232485</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.2110085144546</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>99.72157302677655</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>157.5801385626679</v>
       </c>
       <c r="G20" t="n">
         <v>398.3678052820416</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>275.145931902475</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6171309891995</v>
       </c>
       <c r="V20" t="n">
-        <v>314.1142052363298</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>39.78914136546197</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>134.669673945858</v>
       </c>
       <c r="I22" t="n">
-        <v>72.76475354193595</v>
+        <v>72.76475354193593</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.684819015232485</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.2110085144546</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3354344940787</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.41008379520636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>159.9307236014496</v>
+        <v>238.9121294657625</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>210.2770796227834</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>20.23858490244157</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>30.66437509620991</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6171309891995</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>28.31626909605217</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>7.882995987089949</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>80.90870505957767</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>368.4490205298939</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3678052820416</v>
+        <v>178.0611701752216</v>
       </c>
       <c r="H35" t="n">
-        <v>275.145931902475</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>135.1619641609953</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25329,10 +25329,10 @@
         <v>163.7296254640092</v>
       </c>
       <c r="H37" t="n">
-        <v>134.669673945858</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.76475354193595</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.684819015232499</v>
+        <v>7.684819015232485</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>153.3630351679486</v>
       </c>
       <c r="T37" t="n">
-        <v>21.77766983039075</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>93.86053368530813</v>
       </c>
     </row>
     <row r="38">
@@ -25396,10 +25396,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>113.6658047919016</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>111.008328945131</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>39.78914136546197</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>23.86545615111328</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.7296254640092</v>
@@ -25569,7 +25569,7 @@
         <v>134.669673945858</v>
       </c>
       <c r="I40" t="n">
-        <v>72.76475354193595</v>
+        <v>72.76475354193593</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.684819015232485</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3678052820416</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>275.145931902475</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>210.2770796227834</v>
@@ -25687,13 +25687,13 @@
         <v>255.6171309891995</v>
       </c>
       <c r="V41" t="n">
-        <v>1.939621827745611</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>371.1253370047021</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25794,13 +25794,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>154.8912515142635</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7296254640092</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.684819015232485</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>59.0689408349982</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>208.3512060308894</v>
+        <v>316.9491160334218</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3678052820416</v>
       </c>
       <c r="H44" t="n">
         <v>275.145931902475</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6171309891995</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26025,7 +26025,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>166.8163618355257</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7296254640092</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.669673945858</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>7.684819015232499</v>
+        <v>7.684819015232485</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>79.55966000777313</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>303046.2831180989</v>
+        <v>303046.283118099</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>303046.2831180989</v>
+        <v>303046.283118099</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>303046.2831180989</v>
+        <v>303046.283118099</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>535770.4265938726</v>
+        <v>535770.4265938727</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>535770.4265938727</v>
+        <v>535770.4265938725</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>535770.4265938726</v>
+        <v>535770.4265938727</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>303046.2831180989</v>
+        <v>303046.283118099</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>303046.2831180989</v>
+        <v>303046.283118099</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>303046.2831180989</v>
+        <v>303046.283118099</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>516381.4902713695</v>
       </c>
       <c r="D2" t="n">
-        <v>516381.4902713695</v>
+        <v>516381.4902713696</v>
       </c>
       <c r="E2" t="n">
         <v>300098.9894713077</v>
@@ -26328,34 +26328,34 @@
         <v>300098.9894713077</v>
       </c>
       <c r="G2" t="n">
+        <v>300098.9894713076</v>
+      </c>
+      <c r="H2" t="n">
         <v>300098.9894713077</v>
       </c>
-      <c r="H2" t="n">
-        <v>300098.9894713076</v>
-      </c>
       <c r="I2" t="n">
-        <v>463270.5078651722</v>
+        <v>463270.5078651721</v>
       </c>
       <c r="J2" t="n">
-        <v>463270.5078651719</v>
+        <v>463270.5078651721</v>
       </c>
       <c r="K2" t="n">
-        <v>463270.5078651719</v>
+        <v>463270.507865172</v>
       </c>
       <c r="L2" t="n">
         <v>463270.5078651719</v>
       </c>
       <c r="M2" t="n">
-        <v>300098.9894713074</v>
+        <v>300098.9894713077</v>
       </c>
       <c r="N2" t="n">
-        <v>300098.9894713074</v>
+        <v>300098.9894713077</v>
       </c>
       <c r="O2" t="n">
-        <v>300098.9894713074</v>
+        <v>300098.9894713077</v>
       </c>
       <c r="P2" t="n">
-        <v>300098.9894713076</v>
+        <v>300098.9894713077</v>
       </c>
     </row>
     <row r="3">
@@ -26426,40 +26426,40 @@
         <v>321757.302549922</v>
       </c>
       <c r="E4" t="n">
-        <v>20050.81028184636</v>
+        <v>20050.81028184634</v>
       </c>
       <c r="F4" t="n">
-        <v>20050.81028184636</v>
+        <v>20050.81028184635</v>
       </c>
       <c r="G4" t="n">
-        <v>20050.81028184636</v>
+        <v>20050.81028184634</v>
       </c>
       <c r="H4" t="n">
-        <v>20050.81028184636</v>
+        <v>20050.81028184634</v>
       </c>
       <c r="I4" t="n">
-        <v>98945.99398757161</v>
+        <v>98945.99398757159</v>
       </c>
       <c r="J4" t="n">
-        <v>98945.99398757161</v>
+        <v>98945.99398757159</v>
       </c>
       <c r="K4" t="n">
-        <v>98945.99398757161</v>
+        <v>98945.99398757159</v>
       </c>
       <c r="L4" t="n">
         <v>98945.99398757159</v>
       </c>
       <c r="M4" t="n">
-        <v>20050.81028184636</v>
+        <v>20050.81028184634</v>
       </c>
       <c r="N4" t="n">
-        <v>20050.81028184634</v>
+        <v>20050.81028184635</v>
       </c>
       <c r="O4" t="n">
         <v>20050.81028184635</v>
       </c>
       <c r="P4" t="n">
-        <v>20050.81028184636</v>
+        <v>20050.81028184635</v>
       </c>
     </row>
     <row r="5">
@@ -26481,13 +26481,13 @@
         <v>41815.40098331763</v>
       </c>
       <c r="F5" t="n">
-        <v>41815.40098331763</v>
+        <v>41815.40098331764</v>
       </c>
       <c r="G5" t="n">
-        <v>41815.40098331763</v>
+        <v>41815.40098331764</v>
       </c>
       <c r="H5" t="n">
-        <v>41815.40098331763</v>
+        <v>41815.40098331764</v>
       </c>
       <c r="I5" t="n">
         <v>73176.46387987686</v>
@@ -26505,13 +26505,13 @@
         <v>41815.40098331762</v>
       </c>
       <c r="N5" t="n">
-        <v>41815.40098331762</v>
+        <v>41815.40098331764</v>
       </c>
       <c r="O5" t="n">
-        <v>41815.40098331762</v>
+        <v>41815.40098331765</v>
       </c>
       <c r="P5" t="n">
-        <v>41815.40098331764</v>
+        <v>41815.40098331765</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160996.5877214475</v>
+        <v>160974.8740799512</v>
       </c>
       <c r="C6" t="n">
-        <v>160996.5877214475</v>
+        <v>160974.8740799511</v>
       </c>
       <c r="D6" t="n">
-        <v>160996.5877214475</v>
+        <v>160974.8740799512</v>
       </c>
       <c r="E6" t="n">
-        <v>-301053.1971066727</v>
+        <v>-301675.6954726137</v>
       </c>
       <c r="F6" t="n">
-        <v>238232.7782061437</v>
+        <v>237610.2798402029</v>
       </c>
       <c r="G6" t="n">
-        <v>238232.7782061437</v>
+        <v>237610.2798402027</v>
       </c>
       <c r="H6" t="n">
-        <v>238232.7782061436</v>
+        <v>237610.2798402028</v>
       </c>
       <c r="I6" t="n">
-        <v>153984.1485747643</v>
+        <v>153814.904426584</v>
       </c>
       <c r="J6" t="n">
-        <v>291148.0499977234</v>
+        <v>290978.8058495435</v>
       </c>
       <c r="K6" t="n">
-        <v>291148.0499977234</v>
+        <v>290978.8058495434</v>
       </c>
       <c r="L6" t="n">
-        <v>291148.0499977234</v>
+        <v>290978.8058495432</v>
       </c>
       <c r="M6" t="n">
-        <v>238232.7782061435</v>
+        <v>237610.2798402028</v>
       </c>
       <c r="N6" t="n">
-        <v>238232.7782061434</v>
+        <v>237610.2798402028</v>
       </c>
       <c r="O6" t="n">
-        <v>238232.7782061435</v>
+        <v>237610.2798402028</v>
       </c>
       <c r="P6" t="n">
-        <v>238232.7782061436</v>
+        <v>237610.2798402028</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>479.5567929705686</v>
       </c>
       <c r="F3" t="n">
-        <v>479.5567929705686</v>
+        <v>479.5567929705687</v>
       </c>
       <c r="G3" t="n">
-        <v>479.5567929705686</v>
+        <v>479.5567929705687</v>
       </c>
       <c r="H3" t="n">
-        <v>479.5567929705686</v>
+        <v>479.5567929705687</v>
       </c>
       <c r="I3" t="n">
-        <v>479.5567929705686</v>
+        <v>479.5567929705687</v>
       </c>
       <c r="J3" t="n">
-        <v>479.5567929705686</v>
+        <v>479.5567929705687</v>
       </c>
       <c r="K3" t="n">
-        <v>479.5567929705686</v>
+        <v>479.5567929705687</v>
       </c>
       <c r="L3" t="n">
-        <v>479.5567929705686</v>
+        <v>479.5567929705687</v>
       </c>
       <c r="M3" t="n">
-        <v>479.5567929705686</v>
+        <v>479.5567929705687</v>
       </c>
       <c r="N3" t="n">
-        <v>479.5567929705686</v>
+        <v>479.5567929705687</v>
       </c>
       <c r="O3" t="n">
-        <v>479.5567929705686</v>
+        <v>479.5567929705687</v>
       </c>
       <c r="P3" t="n">
-        <v>479.5567929705686</v>
+        <v>479.5567929705687</v>
       </c>
     </row>
     <row r="4">
@@ -26801,13 +26801,13 @@
         <v>515.8069555355138</v>
       </c>
       <c r="F4" t="n">
-        <v>515.8069555355138</v>
+        <v>515.8069555355139</v>
       </c>
       <c r="G4" t="n">
-        <v>515.8069555355138</v>
+        <v>515.8069555355139</v>
       </c>
       <c r="H4" t="n">
-        <v>515.8069555355138</v>
+        <v>515.8069555355139</v>
       </c>
       <c r="I4" t="n">
         <v>1031.613911071027</v>
@@ -26825,13 +26825,13 @@
         <v>515.8069555355137</v>
       </c>
       <c r="N4" t="n">
-        <v>515.8069555355137</v>
+        <v>515.8069555355139</v>
       </c>
       <c r="O4" t="n">
-        <v>515.8069555355137</v>
+        <v>515.806955535514</v>
       </c>
       <c r="P4" t="n">
-        <v>515.8069555355139</v>
+        <v>515.806955535514</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>515.8069555355138</v>
+        <v>515.8069555355139</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31758,13 +31758,13 @@
         <v>19.74376283823048</v>
       </c>
       <c r="I11" t="n">
-        <v>74.32407341104663</v>
+        <v>74.32407341104664</v>
       </c>
       <c r="J11" t="n">
         <v>163.6252597281841</v>
       </c>
       <c r="K11" t="n">
-        <v>245.2318488596179</v>
+        <v>245.231848859618</v>
       </c>
       <c r="L11" t="n">
         <v>304.2317933937809</v>
@@ -31779,7 +31779,7 @@
         <v>324.8238174939493</v>
       </c>
       <c r="P11" t="n">
-        <v>277.2296131664682</v>
+        <v>277.2296131664683</v>
       </c>
       <c r="Q11" t="n">
         <v>208.1878939774894</v>
@@ -31788,10 +31788,10 @@
         <v>121.1013443072864</v>
       </c>
       <c r="S11" t="n">
-        <v>43.9312579691129</v>
+        <v>43.93125796911291</v>
       </c>
       <c r="T11" t="n">
-        <v>8.439235623029802</v>
+        <v>8.439235623029804</v>
       </c>
       <c r="U11" t="n">
         <v>0.1542293203523435</v>
@@ -31834,19 +31834,19 @@
         <v>1.031499516955563</v>
       </c>
       <c r="H12" t="n">
-        <v>9.962113755860303</v>
+        <v>9.962113755860305</v>
       </c>
       <c r="I12" t="n">
-        <v>35.51434740395248</v>
+        <v>35.51434740395249</v>
       </c>
       <c r="J12" t="n">
-        <v>97.45408374885866</v>
+        <v>97.45408374885868</v>
       </c>
       <c r="K12" t="n">
         <v>166.5645513848814</v>
       </c>
       <c r="L12" t="n">
-        <v>223.9665946793207</v>
+        <v>223.9665946793208</v>
       </c>
       <c r="M12" t="n">
         <v>261.3584521689598</v>
@@ -31864,13 +31864,13 @@
         <v>131.6700085152399</v>
       </c>
       <c r="R12" t="n">
-        <v>64.04345246501293</v>
+        <v>64.04345246501295</v>
       </c>
       <c r="S12" t="n">
-        <v>19.15965111538072</v>
+        <v>19.15965111538073</v>
       </c>
       <c r="T12" t="n">
-        <v>4.157666912641059</v>
+        <v>4.15766691264106</v>
       </c>
       <c r="U12" t="n">
         <v>0.06786181032602388</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8647745447010251</v>
+        <v>0.8647745447010252</v>
       </c>
       <c r="H13" t="n">
-        <v>7.68863186106912</v>
+        <v>7.688631861069121</v>
       </c>
       <c r="I13" t="n">
         <v>26.00612903519084</v>
@@ -31940,19 +31940,19 @@
         <v>104.590550388204</v>
       </c>
       <c r="Q13" t="n">
-        <v>72.41307573855585</v>
+        <v>72.41307573855586</v>
       </c>
       <c r="R13" t="n">
-        <v>38.88340816446608</v>
+        <v>38.88340816446609</v>
       </c>
       <c r="S13" t="n">
         <v>15.07066183810786</v>
       </c>
       <c r="T13" t="n">
-        <v>3.694945781904379</v>
+        <v>3.69494578190438</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04716952062005597</v>
+        <v>0.04716952062005598</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,34 +31989,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.927866504404294</v>
+        <v>1.927866504404295</v>
       </c>
       <c r="H14" t="n">
-        <v>19.74376283823048</v>
+        <v>19.74376283823049</v>
       </c>
       <c r="I14" t="n">
-        <v>74.32407341104663</v>
+        <v>74.32407341104664</v>
       </c>
       <c r="J14" t="n">
         <v>163.6252597281841</v>
       </c>
       <c r="K14" t="n">
-        <v>245.2318488596179</v>
+        <v>245.231848859618</v>
       </c>
       <c r="L14" t="n">
-        <v>304.2317933937809</v>
+        <v>304.231793393781</v>
       </c>
       <c r="M14" t="n">
         <v>338.5164893414808</v>
       </c>
       <c r="N14" t="n">
-        <v>343.9940400471195</v>
+        <v>343.9940400471196</v>
       </c>
       <c r="O14" t="n">
-        <v>324.8238174939493</v>
+        <v>324.8238174939494</v>
       </c>
       <c r="P14" t="n">
-        <v>277.2296131664682</v>
+        <v>277.2296131664683</v>
       </c>
       <c r="Q14" t="n">
         <v>208.1878939774894</v>
@@ -32025,10 +32025,10 @@
         <v>121.1013443072864</v>
       </c>
       <c r="S14" t="n">
-        <v>43.9312579691129</v>
+        <v>43.93125796911291</v>
       </c>
       <c r="T14" t="n">
-        <v>8.439235623029802</v>
+        <v>8.439235623029804</v>
       </c>
       <c r="U14" t="n">
         <v>0.1542293203523435</v>
@@ -32071,25 +32071,25 @@
         <v>1.031499516955563</v>
       </c>
       <c r="H15" t="n">
-        <v>9.962113755860303</v>
+        <v>9.962113755860306</v>
       </c>
       <c r="I15" t="n">
-        <v>35.51434740395248</v>
+        <v>35.5143474039525</v>
       </c>
       <c r="J15" t="n">
-        <v>97.45408374885866</v>
+        <v>97.45408374885869</v>
       </c>
       <c r="K15" t="n">
         <v>166.5645513848814</v>
       </c>
       <c r="L15" t="n">
-        <v>223.9665946793207</v>
+        <v>223.9665946793208</v>
       </c>
       <c r="M15" t="n">
-        <v>261.3584521689598</v>
+        <v>261.3584521689599</v>
       </c>
       <c r="N15" t="n">
-        <v>268.2758327015259</v>
+        <v>268.275832701526</v>
       </c>
       <c r="O15" t="n">
         <v>245.4199749837211</v>
@@ -32101,16 +32101,16 @@
         <v>131.6700085152399</v>
       </c>
       <c r="R15" t="n">
-        <v>64.04345246501293</v>
+        <v>64.04345246501295</v>
       </c>
       <c r="S15" t="n">
-        <v>19.15965111538072</v>
+        <v>19.15965111538073</v>
       </c>
       <c r="T15" t="n">
-        <v>4.157666912641059</v>
+        <v>4.157666912641061</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06786181032602388</v>
+        <v>0.0678618103260239</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8647745447010251</v>
+        <v>0.8647745447010253</v>
       </c>
       <c r="H16" t="n">
-        <v>7.68863186106912</v>
+        <v>7.688631861069122</v>
       </c>
       <c r="I16" t="n">
-        <v>26.00612903519084</v>
+        <v>26.00612903519085</v>
       </c>
       <c r="J16" t="n">
-        <v>61.13956031036248</v>
+        <v>61.13956031036249</v>
       </c>
       <c r="K16" t="n">
         <v>100.4710789207191</v>
       </c>
       <c r="L16" t="n">
-        <v>128.5683900367324</v>
+        <v>128.5683900367325</v>
       </c>
       <c r="M16" t="n">
         <v>135.5573406752707</v>
@@ -32177,19 +32177,19 @@
         <v>104.590550388204</v>
       </c>
       <c r="Q16" t="n">
-        <v>72.41307573855585</v>
+        <v>72.41307573855586</v>
       </c>
       <c r="R16" t="n">
-        <v>38.88340816446608</v>
+        <v>38.8834081644661</v>
       </c>
       <c r="S16" t="n">
         <v>15.07066183810786</v>
       </c>
       <c r="T16" t="n">
-        <v>3.694945781904379</v>
+        <v>3.69494578190438</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04716952062005597</v>
+        <v>0.04716952062005599</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,34 +32226,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.927866504404294</v>
+        <v>1.927866504404295</v>
       </c>
       <c r="H17" t="n">
-        <v>19.74376283823048</v>
+        <v>19.74376283823049</v>
       </c>
       <c r="I17" t="n">
-        <v>74.32407341104663</v>
+        <v>74.32407341104664</v>
       </c>
       <c r="J17" t="n">
         <v>163.6252597281841</v>
       </c>
       <c r="K17" t="n">
-        <v>245.2318488596179</v>
+        <v>245.231848859618</v>
       </c>
       <c r="L17" t="n">
-        <v>304.2317933937809</v>
+        <v>304.231793393781</v>
       </c>
       <c r="M17" t="n">
         <v>338.5164893414808</v>
       </c>
       <c r="N17" t="n">
-        <v>343.9940400471195</v>
+        <v>343.9940400471196</v>
       </c>
       <c r="O17" t="n">
-        <v>324.8238174939493</v>
+        <v>324.8238174939494</v>
       </c>
       <c r="P17" t="n">
-        <v>277.2296131664682</v>
+        <v>277.2296131664683</v>
       </c>
       <c r="Q17" t="n">
         <v>208.1878939774894</v>
@@ -32262,10 +32262,10 @@
         <v>121.1013443072864</v>
       </c>
       <c r="S17" t="n">
-        <v>43.9312579691129</v>
+        <v>43.93125796911291</v>
       </c>
       <c r="T17" t="n">
-        <v>8.439235623029802</v>
+        <v>8.439235623029804</v>
       </c>
       <c r="U17" t="n">
         <v>0.1542293203523435</v>
@@ -32308,25 +32308,25 @@
         <v>1.031499516955563</v>
       </c>
       <c r="H18" t="n">
-        <v>9.962113755860303</v>
+        <v>9.962113755860306</v>
       </c>
       <c r="I18" t="n">
-        <v>35.51434740395248</v>
+        <v>35.5143474039525</v>
       </c>
       <c r="J18" t="n">
-        <v>97.45408374885866</v>
+        <v>97.45408374885869</v>
       </c>
       <c r="K18" t="n">
         <v>166.5645513848814</v>
       </c>
       <c r="L18" t="n">
-        <v>223.9665946793207</v>
+        <v>223.9665946793208</v>
       </c>
       <c r="M18" t="n">
-        <v>261.3584521689598</v>
+        <v>261.3584521689599</v>
       </c>
       <c r="N18" t="n">
-        <v>268.2758327015259</v>
+        <v>268.275832701526</v>
       </c>
       <c r="O18" t="n">
         <v>245.4199749837211</v>
@@ -32338,16 +32338,16 @@
         <v>131.6700085152399</v>
       </c>
       <c r="R18" t="n">
-        <v>64.04345246501293</v>
+        <v>64.04345246501295</v>
       </c>
       <c r="S18" t="n">
-        <v>19.15965111538072</v>
+        <v>19.15965111538073</v>
       </c>
       <c r="T18" t="n">
-        <v>4.157666912641059</v>
+        <v>4.157666912641061</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06786181032602388</v>
+        <v>0.0678618103260239</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8647745447010251</v>
+        <v>0.8647745447010253</v>
       </c>
       <c r="H19" t="n">
-        <v>7.68863186106912</v>
+        <v>7.688631861069122</v>
       </c>
       <c r="I19" t="n">
-        <v>26.00612903519084</v>
+        <v>26.00612903519085</v>
       </c>
       <c r="J19" t="n">
-        <v>61.13956031036248</v>
+        <v>61.13956031036249</v>
       </c>
       <c r="K19" t="n">
         <v>100.4710789207191</v>
       </c>
       <c r="L19" t="n">
-        <v>128.5683900367324</v>
+        <v>128.5683900367325</v>
       </c>
       <c r="M19" t="n">
         <v>135.5573406752707</v>
@@ -32414,19 +32414,19 @@
         <v>104.590550388204</v>
       </c>
       <c r="Q19" t="n">
-        <v>72.41307573855585</v>
+        <v>72.41307573855586</v>
       </c>
       <c r="R19" t="n">
-        <v>38.88340816446608</v>
+        <v>38.8834081644661</v>
       </c>
       <c r="S19" t="n">
         <v>15.07066183810786</v>
       </c>
       <c r="T19" t="n">
-        <v>3.694945781904379</v>
+        <v>3.69494578190438</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04716952062005597</v>
+        <v>0.04716952062005599</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,34 +32463,34 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.927866504404294</v>
+        <v>1.927866504404295</v>
       </c>
       <c r="H20" t="n">
-        <v>19.74376283823048</v>
+        <v>19.74376283823049</v>
       </c>
       <c r="I20" t="n">
-        <v>74.32407341104663</v>
+        <v>74.32407341104664</v>
       </c>
       <c r="J20" t="n">
         <v>163.6252597281841</v>
       </c>
       <c r="K20" t="n">
-        <v>245.2318488596179</v>
+        <v>245.231848859618</v>
       </c>
       <c r="L20" t="n">
-        <v>304.2317933937809</v>
+        <v>304.231793393781</v>
       </c>
       <c r="M20" t="n">
         <v>338.5164893414808</v>
       </c>
       <c r="N20" t="n">
-        <v>343.9940400471195</v>
+        <v>343.9940400471196</v>
       </c>
       <c r="O20" t="n">
-        <v>324.8238174939493</v>
+        <v>324.8238174939494</v>
       </c>
       <c r="P20" t="n">
-        <v>277.2296131664682</v>
+        <v>277.2296131664683</v>
       </c>
       <c r="Q20" t="n">
         <v>208.1878939774894</v>
@@ -32499,10 +32499,10 @@
         <v>121.1013443072864</v>
       </c>
       <c r="S20" t="n">
-        <v>43.9312579691129</v>
+        <v>43.93125796911291</v>
       </c>
       <c r="T20" t="n">
-        <v>8.439235623029802</v>
+        <v>8.439235623029804</v>
       </c>
       <c r="U20" t="n">
         <v>0.1542293203523435</v>
@@ -32545,25 +32545,25 @@
         <v>1.031499516955563</v>
       </c>
       <c r="H21" t="n">
-        <v>9.962113755860303</v>
+        <v>9.962113755860306</v>
       </c>
       <c r="I21" t="n">
-        <v>35.51434740395248</v>
+        <v>35.5143474039525</v>
       </c>
       <c r="J21" t="n">
-        <v>97.45408374885866</v>
+        <v>97.45408374885869</v>
       </c>
       <c r="K21" t="n">
         <v>166.5645513848814</v>
       </c>
       <c r="L21" t="n">
-        <v>223.9665946793207</v>
+        <v>223.9665946793208</v>
       </c>
       <c r="M21" t="n">
-        <v>261.3584521689598</v>
+        <v>261.3584521689599</v>
       </c>
       <c r="N21" t="n">
-        <v>268.2758327015259</v>
+        <v>268.275832701526</v>
       </c>
       <c r="O21" t="n">
         <v>245.4199749837211</v>
@@ -32575,16 +32575,16 @@
         <v>131.6700085152399</v>
       </c>
       <c r="R21" t="n">
-        <v>64.04345246501293</v>
+        <v>64.04345246501295</v>
       </c>
       <c r="S21" t="n">
-        <v>19.15965111538072</v>
+        <v>19.15965111538073</v>
       </c>
       <c r="T21" t="n">
-        <v>4.157666912641059</v>
+        <v>4.157666912641061</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06786181032602388</v>
+        <v>0.0678618103260239</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8647745447010251</v>
+        <v>0.8647745447010253</v>
       </c>
       <c r="H22" t="n">
-        <v>7.68863186106912</v>
+        <v>7.688631861069122</v>
       </c>
       <c r="I22" t="n">
-        <v>26.00612903519084</v>
+        <v>26.00612903519085</v>
       </c>
       <c r="J22" t="n">
-        <v>61.13956031036248</v>
+        <v>61.13956031036249</v>
       </c>
       <c r="K22" t="n">
         <v>100.4710789207191</v>
       </c>
       <c r="L22" t="n">
-        <v>128.5683900367324</v>
+        <v>128.5683900367325</v>
       </c>
       <c r="M22" t="n">
         <v>135.5573406752707</v>
@@ -32651,19 +32651,19 @@
         <v>104.590550388204</v>
       </c>
       <c r="Q22" t="n">
-        <v>72.41307573855585</v>
+        <v>72.41307573855586</v>
       </c>
       <c r="R22" t="n">
-        <v>38.88340816446608</v>
+        <v>38.8834081644661</v>
       </c>
       <c r="S22" t="n">
         <v>15.07066183810786</v>
       </c>
       <c r="T22" t="n">
-        <v>3.694945781904379</v>
+        <v>3.69494578190438</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04716952062005597</v>
+        <v>0.04716952062005599</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,34 +32700,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.927866504404294</v>
+        <v>1.927866504404295</v>
       </c>
       <c r="H23" t="n">
-        <v>19.74376283823048</v>
+        <v>19.74376283823049</v>
       </c>
       <c r="I23" t="n">
-        <v>74.32407341104663</v>
+        <v>74.32407341104664</v>
       </c>
       <c r="J23" t="n">
         <v>163.6252597281841</v>
       </c>
       <c r="K23" t="n">
-        <v>245.2318488596179</v>
+        <v>245.231848859618</v>
       </c>
       <c r="L23" t="n">
-        <v>304.2317933937809</v>
+        <v>304.231793393781</v>
       </c>
       <c r="M23" t="n">
         <v>338.5164893414808</v>
       </c>
       <c r="N23" t="n">
-        <v>343.9940400471195</v>
+        <v>343.9940400471196</v>
       </c>
       <c r="O23" t="n">
-        <v>324.8238174939493</v>
+        <v>324.8238174939494</v>
       </c>
       <c r="P23" t="n">
-        <v>277.2296131664682</v>
+        <v>277.2296131664683</v>
       </c>
       <c r="Q23" t="n">
         <v>208.1878939774894</v>
@@ -32736,10 +32736,10 @@
         <v>121.1013443072864</v>
       </c>
       <c r="S23" t="n">
-        <v>43.9312579691129</v>
+        <v>43.93125796911291</v>
       </c>
       <c r="T23" t="n">
-        <v>8.439235623029802</v>
+        <v>8.439235623029804</v>
       </c>
       <c r="U23" t="n">
         <v>0.1542293203523435</v>
@@ -32782,25 +32782,25 @@
         <v>1.031499516955563</v>
       </c>
       <c r="H24" t="n">
-        <v>9.962113755860303</v>
+        <v>9.962113755860306</v>
       </c>
       <c r="I24" t="n">
-        <v>35.51434740395248</v>
+        <v>35.5143474039525</v>
       </c>
       <c r="J24" t="n">
-        <v>97.45408374885866</v>
+        <v>97.45408374885869</v>
       </c>
       <c r="K24" t="n">
         <v>166.5645513848814</v>
       </c>
       <c r="L24" t="n">
-        <v>223.9665946793207</v>
+        <v>223.9665946793208</v>
       </c>
       <c r="M24" t="n">
-        <v>261.3584521689598</v>
+        <v>261.3584521689599</v>
       </c>
       <c r="N24" t="n">
-        <v>268.2758327015259</v>
+        <v>268.275832701526</v>
       </c>
       <c r="O24" t="n">
         <v>245.4199749837211</v>
@@ -32812,16 +32812,16 @@
         <v>131.6700085152399</v>
       </c>
       <c r="R24" t="n">
-        <v>64.04345246501293</v>
+        <v>64.04345246501295</v>
       </c>
       <c r="S24" t="n">
-        <v>19.15965111538072</v>
+        <v>19.15965111538073</v>
       </c>
       <c r="T24" t="n">
-        <v>4.157666912641059</v>
+        <v>4.157666912641061</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06786181032602388</v>
+        <v>0.0678618103260239</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8647745447010251</v>
+        <v>0.8647745447010253</v>
       </c>
       <c r="H25" t="n">
-        <v>7.68863186106912</v>
+        <v>7.688631861069122</v>
       </c>
       <c r="I25" t="n">
-        <v>26.00612903519084</v>
+        <v>26.00612903519085</v>
       </c>
       <c r="J25" t="n">
-        <v>61.13956031036248</v>
+        <v>61.13956031036249</v>
       </c>
       <c r="K25" t="n">
         <v>100.4710789207191</v>
       </c>
       <c r="L25" t="n">
-        <v>128.5683900367324</v>
+        <v>128.5683900367325</v>
       </c>
       <c r="M25" t="n">
         <v>135.5573406752707</v>
@@ -32888,19 +32888,19 @@
         <v>104.590550388204</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.41307573855585</v>
+        <v>72.41307573855586</v>
       </c>
       <c r="R25" t="n">
-        <v>38.88340816446608</v>
+        <v>38.8834081644661</v>
       </c>
       <c r="S25" t="n">
         <v>15.07066183810786</v>
       </c>
       <c r="T25" t="n">
-        <v>3.694945781904379</v>
+        <v>3.69494578190438</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04716952062005597</v>
+        <v>0.04716952062005599</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,34 +32937,34 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.927866504404294</v>
+        <v>1.927866504404295</v>
       </c>
       <c r="H26" t="n">
-        <v>19.74376283823048</v>
+        <v>19.74376283823049</v>
       </c>
       <c r="I26" t="n">
-        <v>74.32407341104663</v>
+        <v>74.32407341104664</v>
       </c>
       <c r="J26" t="n">
         <v>163.6252597281841</v>
       </c>
       <c r="K26" t="n">
-        <v>245.2318488596179</v>
+        <v>245.231848859618</v>
       </c>
       <c r="L26" t="n">
-        <v>304.2317933937809</v>
+        <v>304.231793393781</v>
       </c>
       <c r="M26" t="n">
         <v>338.5164893414808</v>
       </c>
       <c r="N26" t="n">
-        <v>343.9940400471195</v>
+        <v>343.9940400471196</v>
       </c>
       <c r="O26" t="n">
-        <v>324.8238174939493</v>
+        <v>324.8238174939494</v>
       </c>
       <c r="P26" t="n">
-        <v>277.2296131664682</v>
+        <v>277.2296131664683</v>
       </c>
       <c r="Q26" t="n">
         <v>208.1878939774894</v>
@@ -32973,10 +32973,10 @@
         <v>121.1013443072864</v>
       </c>
       <c r="S26" t="n">
-        <v>43.9312579691129</v>
+        <v>43.93125796911291</v>
       </c>
       <c r="T26" t="n">
-        <v>8.439235623029802</v>
+        <v>8.439235623029804</v>
       </c>
       <c r="U26" t="n">
         <v>0.1542293203523435</v>
@@ -33019,25 +33019,25 @@
         <v>1.031499516955563</v>
       </c>
       <c r="H27" t="n">
-        <v>9.962113755860303</v>
+        <v>9.962113755860306</v>
       </c>
       <c r="I27" t="n">
-        <v>35.51434740395248</v>
+        <v>35.5143474039525</v>
       </c>
       <c r="J27" t="n">
-        <v>97.45408374885866</v>
+        <v>97.45408374885869</v>
       </c>
       <c r="K27" t="n">
         <v>166.5645513848814</v>
       </c>
       <c r="L27" t="n">
-        <v>223.9665946793207</v>
+        <v>223.9665946793208</v>
       </c>
       <c r="M27" t="n">
-        <v>261.3584521689598</v>
+        <v>261.3584521689599</v>
       </c>
       <c r="N27" t="n">
-        <v>268.2758327015259</v>
+        <v>268.275832701526</v>
       </c>
       <c r="O27" t="n">
         <v>245.4199749837211</v>
@@ -33049,16 +33049,16 @@
         <v>131.6700085152399</v>
       </c>
       <c r="R27" t="n">
-        <v>64.04345246501293</v>
+        <v>64.04345246501295</v>
       </c>
       <c r="S27" t="n">
-        <v>19.15965111538072</v>
+        <v>19.15965111538073</v>
       </c>
       <c r="T27" t="n">
-        <v>4.157666912641059</v>
+        <v>4.157666912641061</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06786181032602388</v>
+        <v>0.0678618103260239</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8647745447010251</v>
+        <v>0.8647745447010253</v>
       </c>
       <c r="H28" t="n">
-        <v>7.68863186106912</v>
+        <v>7.688631861069122</v>
       </c>
       <c r="I28" t="n">
-        <v>26.00612903519084</v>
+        <v>26.00612903519085</v>
       </c>
       <c r="J28" t="n">
-        <v>61.13956031036248</v>
+        <v>61.13956031036249</v>
       </c>
       <c r="K28" t="n">
         <v>100.4710789207191</v>
       </c>
       <c r="L28" t="n">
-        <v>128.5683900367324</v>
+        <v>128.5683900367325</v>
       </c>
       <c r="M28" t="n">
         <v>135.5573406752707</v>
@@ -33125,19 +33125,19 @@
         <v>104.590550388204</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.41307573855585</v>
+        <v>72.41307573855586</v>
       </c>
       <c r="R28" t="n">
-        <v>38.88340816446608</v>
+        <v>38.8834081644661</v>
       </c>
       <c r="S28" t="n">
         <v>15.07066183810786</v>
       </c>
       <c r="T28" t="n">
-        <v>3.694945781904379</v>
+        <v>3.69494578190438</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04716952062005597</v>
+        <v>0.04716952062005599</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,34 +33174,34 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.927866504404294</v>
+        <v>1.927866504404295</v>
       </c>
       <c r="H29" t="n">
-        <v>19.74376283823048</v>
+        <v>19.74376283823049</v>
       </c>
       <c r="I29" t="n">
-        <v>74.32407341104663</v>
+        <v>74.32407341104664</v>
       </c>
       <c r="J29" t="n">
         <v>163.6252597281841</v>
       </c>
       <c r="K29" t="n">
-        <v>245.2318488596179</v>
+        <v>245.231848859618</v>
       </c>
       <c r="L29" t="n">
-        <v>304.2317933937809</v>
+        <v>304.231793393781</v>
       </c>
       <c r="M29" t="n">
         <v>338.5164893414808</v>
       </c>
       <c r="N29" t="n">
-        <v>343.9940400471195</v>
+        <v>343.9940400471196</v>
       </c>
       <c r="O29" t="n">
-        <v>324.8238174939493</v>
+        <v>324.8238174939494</v>
       </c>
       <c r="P29" t="n">
-        <v>277.2296131664682</v>
+        <v>277.2296131664683</v>
       </c>
       <c r="Q29" t="n">
         <v>208.1878939774894</v>
@@ -33210,10 +33210,10 @@
         <v>121.1013443072864</v>
       </c>
       <c r="S29" t="n">
-        <v>43.9312579691129</v>
+        <v>43.93125796911291</v>
       </c>
       <c r="T29" t="n">
-        <v>8.439235623029802</v>
+        <v>8.439235623029804</v>
       </c>
       <c r="U29" t="n">
         <v>0.1542293203523435</v>
@@ -33256,25 +33256,25 @@
         <v>1.031499516955563</v>
       </c>
       <c r="H30" t="n">
-        <v>9.962113755860303</v>
+        <v>9.962113755860306</v>
       </c>
       <c r="I30" t="n">
-        <v>35.51434740395248</v>
+        <v>35.5143474039525</v>
       </c>
       <c r="J30" t="n">
-        <v>97.45408374885866</v>
+        <v>97.45408374885869</v>
       </c>
       <c r="K30" t="n">
         <v>166.5645513848814</v>
       </c>
       <c r="L30" t="n">
-        <v>223.9665946793207</v>
+        <v>223.9665946793208</v>
       </c>
       <c r="M30" t="n">
-        <v>261.3584521689598</v>
+        <v>261.3584521689599</v>
       </c>
       <c r="N30" t="n">
-        <v>268.2758327015259</v>
+        <v>268.275832701526</v>
       </c>
       <c r="O30" t="n">
         <v>245.4199749837211</v>
@@ -33286,16 +33286,16 @@
         <v>131.6700085152399</v>
       </c>
       <c r="R30" t="n">
-        <v>64.04345246501293</v>
+        <v>64.04345246501295</v>
       </c>
       <c r="S30" t="n">
-        <v>19.15965111538072</v>
+        <v>19.15965111538073</v>
       </c>
       <c r="T30" t="n">
-        <v>4.157666912641059</v>
+        <v>4.157666912641061</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06786181032602388</v>
+        <v>0.0678618103260239</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8647745447010251</v>
+        <v>0.8647745447010253</v>
       </c>
       <c r="H31" t="n">
-        <v>7.68863186106912</v>
+        <v>7.688631861069122</v>
       </c>
       <c r="I31" t="n">
-        <v>26.00612903519084</v>
+        <v>26.00612903519085</v>
       </c>
       <c r="J31" t="n">
-        <v>61.13956031036248</v>
+        <v>61.13956031036249</v>
       </c>
       <c r="K31" t="n">
         <v>100.4710789207191</v>
       </c>
       <c r="L31" t="n">
-        <v>128.5683900367324</v>
+        <v>128.5683900367325</v>
       </c>
       <c r="M31" t="n">
         <v>135.5573406752707</v>
@@ -33362,19 +33362,19 @@
         <v>104.590550388204</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.41307573855585</v>
+        <v>72.41307573855586</v>
       </c>
       <c r="R31" t="n">
-        <v>38.88340816446608</v>
+        <v>38.8834081644661</v>
       </c>
       <c r="S31" t="n">
         <v>15.07066183810786</v>
       </c>
       <c r="T31" t="n">
-        <v>3.694945781904379</v>
+        <v>3.69494578190438</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04716952062005597</v>
+        <v>0.04716952062005599</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,34 +33411,34 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.927866504404294</v>
+        <v>1.927866504404295</v>
       </c>
       <c r="H32" t="n">
-        <v>19.74376283823048</v>
+        <v>19.74376283823049</v>
       </c>
       <c r="I32" t="n">
-        <v>74.32407341104663</v>
+        <v>74.32407341104664</v>
       </c>
       <c r="J32" t="n">
         <v>163.6252597281841</v>
       </c>
       <c r="K32" t="n">
-        <v>245.2318488596179</v>
+        <v>245.231848859618</v>
       </c>
       <c r="L32" t="n">
-        <v>304.2317933937809</v>
+        <v>304.231793393781</v>
       </c>
       <c r="M32" t="n">
         <v>338.5164893414808</v>
       </c>
       <c r="N32" t="n">
-        <v>343.9940400471195</v>
+        <v>343.9940400471196</v>
       </c>
       <c r="O32" t="n">
-        <v>324.8238174939493</v>
+        <v>324.8238174939494</v>
       </c>
       <c r="P32" t="n">
-        <v>277.2296131664682</v>
+        <v>277.2296131664683</v>
       </c>
       <c r="Q32" t="n">
         <v>208.1878939774894</v>
@@ -33447,10 +33447,10 @@
         <v>121.1013443072864</v>
       </c>
       <c r="S32" t="n">
-        <v>43.9312579691129</v>
+        <v>43.93125796911291</v>
       </c>
       <c r="T32" t="n">
-        <v>8.439235623029802</v>
+        <v>8.439235623029804</v>
       </c>
       <c r="U32" t="n">
         <v>0.1542293203523435</v>
@@ -33493,25 +33493,25 @@
         <v>1.031499516955563</v>
       </c>
       <c r="H33" t="n">
-        <v>9.962113755860303</v>
+        <v>9.962113755860306</v>
       </c>
       <c r="I33" t="n">
-        <v>35.51434740395248</v>
+        <v>35.5143474039525</v>
       </c>
       <c r="J33" t="n">
-        <v>97.45408374885866</v>
+        <v>97.45408374885869</v>
       </c>
       <c r="K33" t="n">
         <v>166.5645513848814</v>
       </c>
       <c r="L33" t="n">
-        <v>223.9665946793207</v>
+        <v>223.9665946793208</v>
       </c>
       <c r="M33" t="n">
-        <v>261.3584521689598</v>
+        <v>261.3584521689599</v>
       </c>
       <c r="N33" t="n">
-        <v>268.2758327015259</v>
+        <v>268.275832701526</v>
       </c>
       <c r="O33" t="n">
         <v>245.4199749837211</v>
@@ -33523,16 +33523,16 @@
         <v>131.6700085152399</v>
       </c>
       <c r="R33" t="n">
-        <v>64.04345246501293</v>
+        <v>64.04345246501295</v>
       </c>
       <c r="S33" t="n">
-        <v>19.15965111538072</v>
+        <v>19.15965111538073</v>
       </c>
       <c r="T33" t="n">
-        <v>4.157666912641059</v>
+        <v>4.157666912641061</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06786181032602388</v>
+        <v>0.0678618103260239</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8647745447010251</v>
+        <v>0.8647745447010253</v>
       </c>
       <c r="H34" t="n">
-        <v>7.68863186106912</v>
+        <v>7.688631861069122</v>
       </c>
       <c r="I34" t="n">
-        <v>26.00612903519084</v>
+        <v>26.00612903519085</v>
       </c>
       <c r="J34" t="n">
-        <v>61.13956031036248</v>
+        <v>61.13956031036249</v>
       </c>
       <c r="K34" t="n">
         <v>100.4710789207191</v>
       </c>
       <c r="L34" t="n">
-        <v>128.5683900367324</v>
+        <v>128.5683900367325</v>
       </c>
       <c r="M34" t="n">
         <v>135.5573406752707</v>
@@ -33599,19 +33599,19 @@
         <v>104.590550388204</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.41307573855585</v>
+        <v>72.41307573855586</v>
       </c>
       <c r="R34" t="n">
-        <v>38.88340816446608</v>
+        <v>38.8834081644661</v>
       </c>
       <c r="S34" t="n">
         <v>15.07066183810786</v>
       </c>
       <c r="T34" t="n">
-        <v>3.694945781904379</v>
+        <v>3.69494578190438</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04716952062005597</v>
+        <v>0.04716952062005599</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,34 +33648,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.927866504404294</v>
+        <v>1.927866504404295</v>
       </c>
       <c r="H35" t="n">
-        <v>19.74376283823048</v>
+        <v>19.74376283823049</v>
       </c>
       <c r="I35" t="n">
-        <v>74.32407341104663</v>
+        <v>74.32407341104664</v>
       </c>
       <c r="J35" t="n">
         <v>163.6252597281841</v>
       </c>
       <c r="K35" t="n">
-        <v>245.2318488596179</v>
+        <v>245.231848859618</v>
       </c>
       <c r="L35" t="n">
-        <v>304.2317933937809</v>
+        <v>304.231793393781</v>
       </c>
       <c r="M35" t="n">
         <v>338.5164893414808</v>
       </c>
       <c r="N35" t="n">
-        <v>343.9940400471195</v>
+        <v>343.9940400471196</v>
       </c>
       <c r="O35" t="n">
-        <v>324.8238174939493</v>
+        <v>324.8238174939494</v>
       </c>
       <c r="P35" t="n">
-        <v>277.2296131664682</v>
+        <v>277.2296131664683</v>
       </c>
       <c r="Q35" t="n">
         <v>208.1878939774894</v>
@@ -33684,10 +33684,10 @@
         <v>121.1013443072864</v>
       </c>
       <c r="S35" t="n">
-        <v>43.9312579691129</v>
+        <v>43.93125796911291</v>
       </c>
       <c r="T35" t="n">
-        <v>8.439235623029802</v>
+        <v>8.439235623029804</v>
       </c>
       <c r="U35" t="n">
         <v>0.1542293203523435</v>
@@ -33730,25 +33730,25 @@
         <v>1.031499516955563</v>
       </c>
       <c r="H36" t="n">
-        <v>9.962113755860303</v>
+        <v>9.962113755860306</v>
       </c>
       <c r="I36" t="n">
-        <v>35.51434740395248</v>
+        <v>35.5143474039525</v>
       </c>
       <c r="J36" t="n">
-        <v>97.45408374885866</v>
+        <v>97.45408374885869</v>
       </c>
       <c r="K36" t="n">
         <v>166.5645513848814</v>
       </c>
       <c r="L36" t="n">
-        <v>223.9665946793207</v>
+        <v>223.9665946793208</v>
       </c>
       <c r="M36" t="n">
-        <v>261.3584521689598</v>
+        <v>261.3584521689599</v>
       </c>
       <c r="N36" t="n">
-        <v>268.2758327015259</v>
+        <v>268.275832701526</v>
       </c>
       <c r="O36" t="n">
         <v>245.4199749837211</v>
@@ -33760,16 +33760,16 @@
         <v>131.6700085152399</v>
       </c>
       <c r="R36" t="n">
-        <v>64.04345246501293</v>
+        <v>64.04345246501295</v>
       </c>
       <c r="S36" t="n">
-        <v>19.15965111538072</v>
+        <v>19.15965111538073</v>
       </c>
       <c r="T36" t="n">
-        <v>4.157666912641059</v>
+        <v>4.157666912641061</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06786181032602388</v>
+        <v>0.0678618103260239</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8647745447010251</v>
+        <v>0.8647745447010253</v>
       </c>
       <c r="H37" t="n">
-        <v>7.68863186106912</v>
+        <v>7.688631861069122</v>
       </c>
       <c r="I37" t="n">
-        <v>26.00612903519084</v>
+        <v>26.00612903519085</v>
       </c>
       <c r="J37" t="n">
-        <v>61.13956031036248</v>
+        <v>61.13956031036249</v>
       </c>
       <c r="K37" t="n">
         <v>100.4710789207191</v>
       </c>
       <c r="L37" t="n">
-        <v>128.5683900367324</v>
+        <v>128.5683900367325</v>
       </c>
       <c r="M37" t="n">
         <v>135.5573406752707</v>
@@ -33836,19 +33836,19 @@
         <v>104.590550388204</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.41307573855585</v>
+        <v>72.41307573855586</v>
       </c>
       <c r="R37" t="n">
-        <v>38.88340816446608</v>
+        <v>38.8834081644661</v>
       </c>
       <c r="S37" t="n">
         <v>15.07066183810786</v>
       </c>
       <c r="T37" t="n">
-        <v>3.694945781904379</v>
+        <v>3.69494578190438</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04716952062005597</v>
+        <v>0.04716952062005599</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,34 +33885,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.927866504404294</v>
+        <v>1.927866504404295</v>
       </c>
       <c r="H38" t="n">
-        <v>19.74376283823048</v>
+        <v>19.74376283823049</v>
       </c>
       <c r="I38" t="n">
-        <v>74.32407341104663</v>
+        <v>74.32407341104664</v>
       </c>
       <c r="J38" t="n">
         <v>163.6252597281841</v>
       </c>
       <c r="K38" t="n">
-        <v>245.2318488596179</v>
+        <v>245.231848859618</v>
       </c>
       <c r="L38" t="n">
-        <v>304.2317933937809</v>
+        <v>304.231793393781</v>
       </c>
       <c r="M38" t="n">
         <v>338.5164893414808</v>
       </c>
       <c r="N38" t="n">
-        <v>343.9940400471195</v>
+        <v>343.9940400471196</v>
       </c>
       <c r="O38" t="n">
-        <v>324.8238174939493</v>
+        <v>324.8238174939494</v>
       </c>
       <c r="P38" t="n">
-        <v>277.2296131664682</v>
+        <v>277.2296131664683</v>
       </c>
       <c r="Q38" t="n">
         <v>208.1878939774894</v>
@@ -33921,10 +33921,10 @@
         <v>121.1013443072864</v>
       </c>
       <c r="S38" t="n">
-        <v>43.9312579691129</v>
+        <v>43.93125796911291</v>
       </c>
       <c r="T38" t="n">
-        <v>8.439235623029802</v>
+        <v>8.439235623029804</v>
       </c>
       <c r="U38" t="n">
         <v>0.1542293203523435</v>
@@ -33967,25 +33967,25 @@
         <v>1.031499516955563</v>
       </c>
       <c r="H39" t="n">
-        <v>9.962113755860303</v>
+        <v>9.962113755860306</v>
       </c>
       <c r="I39" t="n">
-        <v>35.51434740395248</v>
+        <v>35.5143474039525</v>
       </c>
       <c r="J39" t="n">
-        <v>97.45408374885866</v>
+        <v>97.45408374885869</v>
       </c>
       <c r="K39" t="n">
         <v>166.5645513848814</v>
       </c>
       <c r="L39" t="n">
-        <v>223.9665946793207</v>
+        <v>223.9665946793208</v>
       </c>
       <c r="M39" t="n">
-        <v>261.3584521689598</v>
+        <v>261.3584521689599</v>
       </c>
       <c r="N39" t="n">
-        <v>268.2758327015259</v>
+        <v>268.275832701526</v>
       </c>
       <c r="O39" t="n">
         <v>245.4199749837211</v>
@@ -33997,16 +33997,16 @@
         <v>131.6700085152399</v>
       </c>
       <c r="R39" t="n">
-        <v>64.04345246501293</v>
+        <v>64.04345246501295</v>
       </c>
       <c r="S39" t="n">
-        <v>19.15965111538072</v>
+        <v>19.15965111538073</v>
       </c>
       <c r="T39" t="n">
-        <v>4.157666912641059</v>
+        <v>4.157666912641061</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06786181032602388</v>
+        <v>0.0678618103260239</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8647745447010251</v>
+        <v>0.8647745447010253</v>
       </c>
       <c r="H40" t="n">
-        <v>7.68863186106912</v>
+        <v>7.688631861069122</v>
       </c>
       <c r="I40" t="n">
-        <v>26.00612903519084</v>
+        <v>26.00612903519085</v>
       </c>
       <c r="J40" t="n">
-        <v>61.13956031036248</v>
+        <v>61.13956031036249</v>
       </c>
       <c r="K40" t="n">
         <v>100.4710789207191</v>
       </c>
       <c r="L40" t="n">
-        <v>128.5683900367324</v>
+        <v>128.5683900367325</v>
       </c>
       <c r="M40" t="n">
         <v>135.5573406752707</v>
@@ -34073,19 +34073,19 @@
         <v>104.590550388204</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.41307573855585</v>
+        <v>72.41307573855586</v>
       </c>
       <c r="R40" t="n">
-        <v>38.88340816446608</v>
+        <v>38.8834081644661</v>
       </c>
       <c r="S40" t="n">
         <v>15.07066183810786</v>
       </c>
       <c r="T40" t="n">
-        <v>3.694945781904379</v>
+        <v>3.69494578190438</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04716952062005597</v>
+        <v>0.04716952062005599</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,34 +34122,34 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.927866504404294</v>
+        <v>1.927866504404295</v>
       </c>
       <c r="H41" t="n">
-        <v>19.74376283823048</v>
+        <v>19.74376283823049</v>
       </c>
       <c r="I41" t="n">
-        <v>74.32407341104663</v>
+        <v>74.32407341104665</v>
       </c>
       <c r="J41" t="n">
-        <v>163.6252597281841</v>
+        <v>163.6252597281842</v>
       </c>
       <c r="K41" t="n">
-        <v>245.2318488596179</v>
+        <v>245.231848859618</v>
       </c>
       <c r="L41" t="n">
-        <v>304.2317933937809</v>
+        <v>304.231793393781</v>
       </c>
       <c r="M41" t="n">
-        <v>338.5164893414808</v>
+        <v>338.5164893414809</v>
       </c>
       <c r="N41" t="n">
-        <v>343.9940400471195</v>
+        <v>343.9940400471197</v>
       </c>
       <c r="O41" t="n">
-        <v>324.8238174939493</v>
+        <v>324.8238174939494</v>
       </c>
       <c r="P41" t="n">
-        <v>277.2296131664682</v>
+        <v>277.2296131664683</v>
       </c>
       <c r="Q41" t="n">
         <v>208.1878939774894</v>
@@ -34158,13 +34158,13 @@
         <v>121.1013443072864</v>
       </c>
       <c r="S41" t="n">
-        <v>43.9312579691129</v>
+        <v>43.93125796911291</v>
       </c>
       <c r="T41" t="n">
-        <v>8.439235623029802</v>
+        <v>8.439235623029806</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1542293203523435</v>
+        <v>0.1542293203523436</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,25 +34204,25 @@
         <v>1.031499516955563</v>
       </c>
       <c r="H42" t="n">
-        <v>9.962113755860303</v>
+        <v>9.962113755860306</v>
       </c>
       <c r="I42" t="n">
-        <v>35.51434740395248</v>
+        <v>35.5143474039525</v>
       </c>
       <c r="J42" t="n">
-        <v>97.45408374885866</v>
+        <v>97.45408374885871</v>
       </c>
       <c r="K42" t="n">
         <v>166.5645513848814</v>
       </c>
       <c r="L42" t="n">
-        <v>223.9665946793207</v>
+        <v>223.9665946793208</v>
       </c>
       <c r="M42" t="n">
-        <v>261.3584521689598</v>
+        <v>261.3584521689599</v>
       </c>
       <c r="N42" t="n">
-        <v>268.2758327015259</v>
+        <v>268.275832701526</v>
       </c>
       <c r="O42" t="n">
         <v>245.4199749837211</v>
@@ -34234,16 +34234,16 @@
         <v>131.6700085152399</v>
       </c>
       <c r="R42" t="n">
-        <v>64.04345246501293</v>
+        <v>64.04345246501296</v>
       </c>
       <c r="S42" t="n">
-        <v>19.15965111538072</v>
+        <v>19.15965111538073</v>
       </c>
       <c r="T42" t="n">
-        <v>4.157666912641059</v>
+        <v>4.157666912641061</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06786181032602388</v>
+        <v>0.06786181032602391</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8647745447010251</v>
+        <v>0.8647745447010254</v>
       </c>
       <c r="H43" t="n">
-        <v>7.68863186106912</v>
+        <v>7.688631861069123</v>
       </c>
       <c r="I43" t="n">
-        <v>26.00612903519084</v>
+        <v>26.00612903519085</v>
       </c>
       <c r="J43" t="n">
-        <v>61.13956031036248</v>
+        <v>61.1395603103625</v>
       </c>
       <c r="K43" t="n">
         <v>100.4710789207191</v>
       </c>
       <c r="L43" t="n">
-        <v>128.5683900367324</v>
+        <v>128.5683900367325</v>
       </c>
       <c r="M43" t="n">
         <v>135.5573406752707</v>
@@ -34310,19 +34310,19 @@
         <v>104.590550388204</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.41307573855585</v>
+        <v>72.41307573855588</v>
       </c>
       <c r="R43" t="n">
-        <v>38.88340816446608</v>
+        <v>38.8834081644661</v>
       </c>
       <c r="S43" t="n">
-        <v>15.07066183810786</v>
+        <v>15.07066183810787</v>
       </c>
       <c r="T43" t="n">
-        <v>3.694945781904379</v>
+        <v>3.69494578190438</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04716952062005597</v>
+        <v>0.04716952062005599</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,34 +34359,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.927866504404294</v>
+        <v>1.927866504404295</v>
       </c>
       <c r="H44" t="n">
-        <v>19.74376283823048</v>
+        <v>19.74376283823049</v>
       </c>
       <c r="I44" t="n">
-        <v>74.32407341104663</v>
+        <v>74.32407341104665</v>
       </c>
       <c r="J44" t="n">
-        <v>163.6252597281841</v>
+        <v>163.6252597281842</v>
       </c>
       <c r="K44" t="n">
-        <v>245.2318488596179</v>
+        <v>245.231848859618</v>
       </c>
       <c r="L44" t="n">
-        <v>304.2317933937809</v>
+        <v>304.231793393781</v>
       </c>
       <c r="M44" t="n">
-        <v>338.5164893414808</v>
+        <v>338.5164893414809</v>
       </c>
       <c r="N44" t="n">
-        <v>343.9940400471195</v>
+        <v>343.9940400471197</v>
       </c>
       <c r="O44" t="n">
-        <v>324.8238174939493</v>
+        <v>324.8238174939494</v>
       </c>
       <c r="P44" t="n">
-        <v>277.2296131664682</v>
+        <v>277.2296131664683</v>
       </c>
       <c r="Q44" t="n">
         <v>208.1878939774894</v>
@@ -34395,13 +34395,13 @@
         <v>121.1013443072864</v>
       </c>
       <c r="S44" t="n">
-        <v>43.9312579691129</v>
+        <v>43.93125796911291</v>
       </c>
       <c r="T44" t="n">
-        <v>8.439235623029802</v>
+        <v>8.439235623029806</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1542293203523435</v>
+        <v>0.1542293203523436</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,25 +34441,25 @@
         <v>1.031499516955563</v>
       </c>
       <c r="H45" t="n">
-        <v>9.962113755860303</v>
+        <v>9.962113755860306</v>
       </c>
       <c r="I45" t="n">
-        <v>35.51434740395248</v>
+        <v>35.5143474039525</v>
       </c>
       <c r="J45" t="n">
-        <v>97.45408374885866</v>
+        <v>97.45408374885871</v>
       </c>
       <c r="K45" t="n">
         <v>166.5645513848814</v>
       </c>
       <c r="L45" t="n">
-        <v>223.9665946793207</v>
+        <v>223.9665946793208</v>
       </c>
       <c r="M45" t="n">
-        <v>261.3584521689598</v>
+        <v>261.3584521689599</v>
       </c>
       <c r="N45" t="n">
-        <v>268.2758327015259</v>
+        <v>268.275832701526</v>
       </c>
       <c r="O45" t="n">
         <v>245.4199749837211</v>
@@ -34471,16 +34471,16 @@
         <v>131.6700085152399</v>
       </c>
       <c r="R45" t="n">
-        <v>64.04345246501293</v>
+        <v>64.04345246501296</v>
       </c>
       <c r="S45" t="n">
-        <v>19.15965111538072</v>
+        <v>19.15965111538073</v>
       </c>
       <c r="T45" t="n">
-        <v>4.157666912641059</v>
+        <v>4.157666912641061</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06786181032602388</v>
+        <v>0.06786181032602391</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8647745447010251</v>
+        <v>0.8647745447010254</v>
       </c>
       <c r="H46" t="n">
-        <v>7.68863186106912</v>
+        <v>7.688631861069123</v>
       </c>
       <c r="I46" t="n">
-        <v>26.00612903519084</v>
+        <v>26.00612903519085</v>
       </c>
       <c r="J46" t="n">
-        <v>61.13956031036248</v>
+        <v>61.1395603103625</v>
       </c>
       <c r="K46" t="n">
         <v>100.4710789207191</v>
       </c>
       <c r="L46" t="n">
-        <v>128.5683900367324</v>
+        <v>128.5683900367325</v>
       </c>
       <c r="M46" t="n">
         <v>135.5573406752707</v>
@@ -34547,19 +34547,19 @@
         <v>104.590550388204</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.41307573855585</v>
+        <v>72.41307573855588</v>
       </c>
       <c r="R46" t="n">
-        <v>38.88340816446608</v>
+        <v>38.8834081644661</v>
       </c>
       <c r="S46" t="n">
-        <v>15.07066183810786</v>
+        <v>15.07066183810787</v>
       </c>
       <c r="T46" t="n">
-        <v>3.694945781904379</v>
+        <v>3.69494578190438</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04716952062005597</v>
+        <v>0.04716952062005599</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>39.77617086708312</v>
+        <v>39.77617086708314</v>
       </c>
       <c r="J11" t="n">
         <v>134.2053002425976</v>
@@ -35427,7 +35427,7 @@
         <v>287.4328581379252</v>
       </c>
       <c r="P11" t="n">
-        <v>239.6542513562369</v>
+        <v>239.654251356237</v>
       </c>
       <c r="Q11" t="n">
         <v>172.0632193728914</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.34196065395248</v>
+        <v>19.34196065395249</v>
       </c>
       <c r="J12" t="n">
-        <v>80.62975696921315</v>
+        <v>288.4644971811447</v>
       </c>
       <c r="K12" t="n">
         <v>144.165317551548</v>
       </c>
       <c r="L12" t="n">
-        <v>515.8069555355138</v>
+        <v>201.4515079650912</v>
       </c>
       <c r="M12" t="n">
         <v>238.2616716566319</v>
@@ -35503,7 +35503,7 @@
         <v>246.9328044879843</v>
       </c>
       <c r="O12" t="n">
-        <v>222.2480852614988</v>
+        <v>222.2480852614989</v>
       </c>
       <c r="P12" t="n">
         <v>175.2003253267998</v>
@@ -35512,7 +35512,7 @@
         <v>108.9229702262614</v>
       </c>
       <c r="R12" t="n">
-        <v>40.37053307086879</v>
+        <v>146.8912404293595</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>119.2116090216332</v>
+        <v>40.50280432646062</v>
       </c>
       <c r="K13" t="n">
-        <v>79.50642446800708</v>
+        <v>79.5064244680071</v>
       </c>
       <c r="L13" t="n">
-        <v>136.9771498958527</v>
+        <v>486.8404317482685</v>
       </c>
       <c r="M13" t="n">
-        <v>112.9819007837849</v>
+        <v>515.8069555355138</v>
       </c>
       <c r="N13" t="n">
-        <v>513.6386465400071</v>
+        <v>308.4769953898291</v>
       </c>
       <c r="O13" t="n">
-        <v>481.2502628978454</v>
+        <v>481.2502628978455</v>
       </c>
       <c r="P13" t="n">
-        <v>398.1251078850736</v>
+        <v>82.20974973021748</v>
       </c>
       <c r="Q13" t="n">
-        <v>200.6960355777093</v>
+        <v>47.79351297377092</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>39.77617086708312</v>
+        <v>39.77617086708314</v>
       </c>
       <c r="J14" t="n">
         <v>134.2053002425976</v>
@@ -35652,25 +35652,25 @@
         <v>209.4672480648086</v>
       </c>
       <c r="L14" t="n">
-        <v>265.919750961158</v>
+        <v>265.9197509611581</v>
       </c>
       <c r="M14" t="n">
         <v>301.085226442049</v>
       </c>
       <c r="N14" t="n">
-        <v>306.7144172126735</v>
+        <v>306.7144172126736</v>
       </c>
       <c r="O14" t="n">
-        <v>287.4328581379252</v>
+        <v>287.4328581379253</v>
       </c>
       <c r="P14" t="n">
-        <v>239.6542513562369</v>
+        <v>239.654251356237</v>
       </c>
       <c r="Q14" t="n">
         <v>172.0632193728914</v>
       </c>
       <c r="R14" t="n">
-        <v>86.06869441248989</v>
+        <v>86.06869441248992</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>19.34196065395248</v>
+        <v>43.03620898164122</v>
       </c>
       <c r="J15" t="n">
-        <v>371.895992112082</v>
+        <v>264.7702488534557</v>
       </c>
       <c r="K15" t="n">
-        <v>167.2545299791017</v>
+        <v>144.165317551548</v>
       </c>
       <c r="L15" t="n">
         <v>201.4515079650912</v>
@@ -35740,16 +35740,16 @@
         <v>246.9328044879843</v>
       </c>
       <c r="O15" t="n">
-        <v>222.2480852614988</v>
+        <v>222.2480852614989</v>
       </c>
       <c r="P15" t="n">
-        <v>175.2003253267998</v>
+        <v>175.2003253267999</v>
       </c>
       <c r="Q15" t="n">
         <v>108.9229702262614</v>
       </c>
       <c r="R15" t="n">
-        <v>40.37053307086879</v>
+        <v>146.8912404293595</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>119.2116090216332</v>
+        <v>40.50280432646062</v>
       </c>
       <c r="K16" t="n">
-        <v>88.52638876726441</v>
+        <v>79.50642446800711</v>
       </c>
       <c r="L16" t="n">
-        <v>106.6496301410312</v>
+        <v>486.8404317482686</v>
       </c>
       <c r="M16" t="n">
-        <v>515.8069555355138</v>
+        <v>112.9819007837849</v>
       </c>
       <c r="N16" t="n">
         <v>513.6386465400071</v>
       </c>
       <c r="O16" t="n">
-        <v>99.7327636016805</v>
+        <v>481.2502628978455</v>
       </c>
       <c r="P16" t="n">
-        <v>398.1251078850736</v>
+        <v>279.8731533317693</v>
       </c>
       <c r="Q16" t="n">
-        <v>200.6960355777093</v>
+        <v>47.79351297377092</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>39.77617086708312</v>
+        <v>39.77617086708314</v>
       </c>
       <c r="J17" t="n">
         <v>134.2053002425976</v>
@@ -35889,25 +35889,25 @@
         <v>209.4672480648086</v>
       </c>
       <c r="L17" t="n">
-        <v>265.919750961158</v>
+        <v>265.9197509611581</v>
       </c>
       <c r="M17" t="n">
         <v>301.085226442049</v>
       </c>
       <c r="N17" t="n">
-        <v>306.7144172126735</v>
+        <v>306.7144172126736</v>
       </c>
       <c r="O17" t="n">
-        <v>287.4328581379252</v>
+        <v>287.4328581379253</v>
       </c>
       <c r="P17" t="n">
-        <v>239.6542513562369</v>
+        <v>239.654251356237</v>
       </c>
       <c r="Q17" t="n">
-        <v>172.0632193728914</v>
+        <v>172.0632193728913</v>
       </c>
       <c r="R17" t="n">
-        <v>86.06869441248989</v>
+        <v>86.06869441248992</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>19.34196065395248</v>
+        <v>43.03620898164122</v>
       </c>
       <c r="J18" t="n">
-        <v>76.84296941552533</v>
+        <v>264.7702488534557</v>
       </c>
       <c r="K18" t="n">
         <v>144.165317551548</v>
@@ -35977,16 +35977,16 @@
         <v>246.9328044879843</v>
       </c>
       <c r="O18" t="n">
-        <v>222.2480852614988</v>
+        <v>222.2480852614989</v>
       </c>
       <c r="P18" t="n">
-        <v>175.2003253267998</v>
+        <v>175.2003253267999</v>
       </c>
       <c r="Q18" t="n">
-        <v>427.0652053503719</v>
+        <v>108.9229702262614</v>
       </c>
       <c r="R18" t="n">
-        <v>40.37053307086879</v>
+        <v>146.8912404293595</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>119.2116090216332</v>
       </c>
       <c r="K19" t="n">
-        <v>79.50642446800708</v>
+        <v>329.286837714494</v>
       </c>
       <c r="L19" t="n">
-        <v>136.9771498958527</v>
+        <v>106.6496301410313</v>
       </c>
       <c r="M19" t="n">
-        <v>112.9819007837849</v>
+        <v>515.8069555355139</v>
       </c>
       <c r="N19" t="n">
-        <v>513.6386465400071</v>
+        <v>360.1785790554073</v>
       </c>
       <c r="O19" t="n">
-        <v>481.2502628978454</v>
+        <v>481.2502628978455</v>
       </c>
       <c r="P19" t="n">
-        <v>398.1251078850736</v>
+        <v>82.20974973021748</v>
       </c>
       <c r="Q19" t="n">
-        <v>200.6960355777093</v>
+        <v>47.79351297377092</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>39.77617086708312</v>
+        <v>39.77617086708314</v>
       </c>
       <c r="J20" t="n">
-        <v>134.2053002425976</v>
+        <v>134.2053002425978</v>
       </c>
       <c r="K20" t="n">
         <v>209.4672480648086</v>
       </c>
       <c r="L20" t="n">
-        <v>265.919750961158</v>
+        <v>265.9197509611581</v>
       </c>
       <c r="M20" t="n">
         <v>301.085226442049</v>
       </c>
       <c r="N20" t="n">
-        <v>306.7144172126739</v>
+        <v>306.7144172126736</v>
       </c>
       <c r="O20" t="n">
-        <v>287.4328581379252</v>
+        <v>287.4328581379253</v>
       </c>
       <c r="P20" t="n">
-        <v>239.6542513562369</v>
+        <v>239.654251356237</v>
       </c>
       <c r="Q20" t="n">
         <v>172.0632193728914</v>
       </c>
       <c r="R20" t="n">
-        <v>86.06869441248989</v>
+        <v>86.06869441248992</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>19.34196065395248</v>
+        <v>43.03620898164122</v>
       </c>
       <c r="J21" t="n">
-        <v>76.84296941552533</v>
+        <v>264.7702488534557</v>
       </c>
       <c r="K21" t="n">
-        <v>462.3075526756584</v>
+        <v>144.165317551548</v>
       </c>
       <c r="L21" t="n">
         <v>201.4515079650912</v>
@@ -36214,16 +36214,16 @@
         <v>246.9328044879843</v>
       </c>
       <c r="O21" t="n">
-        <v>222.2480852614988</v>
+        <v>222.2480852614989</v>
       </c>
       <c r="P21" t="n">
-        <v>175.2003253267998</v>
+        <v>175.2003253267999</v>
       </c>
       <c r="Q21" t="n">
         <v>108.9229702262614</v>
       </c>
       <c r="R21" t="n">
-        <v>40.37053307086879</v>
+        <v>146.8912404293595</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,19 +36281,19 @@
         <v>119.2116090216332</v>
       </c>
       <c r="K22" t="n">
-        <v>79.50642446800708</v>
+        <v>329.286837714494</v>
       </c>
       <c r="L22" t="n">
-        <v>136.9771498958527</v>
+        <v>486.8404317482686</v>
       </c>
       <c r="M22" t="n">
-        <v>112.9819007837849</v>
+        <v>296.9091623970878</v>
       </c>
       <c r="N22" t="n">
-        <v>513.6386465400071</v>
+        <v>111.5851891239666</v>
       </c>
       <c r="O22" t="n">
-        <v>481.2502628978454</v>
+        <v>99.73276360168053</v>
       </c>
       <c r="P22" t="n">
         <v>398.1251078850736</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>39.77617086708312</v>
+        <v>39.77617086708314</v>
       </c>
       <c r="J23" t="n">
-        <v>134.2053002425976</v>
+        <v>529.8913797452503</v>
       </c>
       <c r="K23" t="n">
-        <v>967.9675134813341</v>
+        <v>209.4672480648086</v>
       </c>
       <c r="L23" t="n">
-        <v>299.9805673490987</v>
+        <v>265.9197509611581</v>
       </c>
       <c r="M23" t="n">
         <v>301.085226442049</v>
       </c>
       <c r="N23" t="n">
-        <v>306.7144172126735</v>
+        <v>306.7144172126736</v>
       </c>
       <c r="O23" t="n">
-        <v>287.4328581379252</v>
+        <v>684.3078604397384</v>
       </c>
       <c r="P23" t="n">
-        <v>992.6632284775062</v>
+        <v>992.6632284775063</v>
       </c>
       <c r="Q23" t="n">
-        <v>668.8802975170682</v>
+        <v>668.8802975170684</v>
       </c>
       <c r="R23" t="n">
-        <v>86.06869441248989</v>
+        <v>86.06869441248992</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>19.34196065395248</v>
+        <v>19.3419606539525</v>
       </c>
       <c r="J24" t="n">
-        <v>76.84296941552533</v>
+        <v>371.895992112082</v>
       </c>
       <c r="K24" t="n">
-        <v>462.3075526756585</v>
+        <v>144.165317551548</v>
       </c>
       <c r="L24" t="n">
         <v>201.4515079650912</v>
@@ -36451,16 +36451,16 @@
         <v>246.9328044879843</v>
       </c>
       <c r="O24" t="n">
-        <v>222.2480852614988</v>
+        <v>222.2480852614989</v>
       </c>
       <c r="P24" t="n">
-        <v>175.2003253267998</v>
+        <v>175.2003253267999</v>
       </c>
       <c r="Q24" t="n">
         <v>108.9229702262614</v>
       </c>
       <c r="R24" t="n">
-        <v>40.37053307086879</v>
+        <v>63.45974549842204</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,10 +36518,10 @@
         <v>119.2116090216332</v>
       </c>
       <c r="K25" t="n">
-        <v>245.6317704059686</v>
+        <v>329.286837714494</v>
       </c>
       <c r="L25" t="n">
-        <v>486.8404317482685</v>
+        <v>486.8404317482686</v>
       </c>
       <c r="M25" t="n">
         <v>530.6945073118877</v>
@@ -36530,13 +36530,13 @@
         <v>513.6386465400071</v>
       </c>
       <c r="O25" t="n">
-        <v>481.2502628978454</v>
+        <v>481.2502628978455</v>
       </c>
       <c r="P25" t="n">
         <v>398.1251078850736</v>
       </c>
       <c r="Q25" t="n">
-        <v>200.6960355777093</v>
+        <v>117.0409682691837</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>39.77617086708312</v>
+        <v>39.77617086708314</v>
       </c>
       <c r="J26" t="n">
         <v>529.8913797452503</v>
       </c>
       <c r="K26" t="n">
-        <v>967.9675134813341</v>
+        <v>452.5658278638427</v>
       </c>
       <c r="L26" t="n">
-        <v>423.5918584829136</v>
+        <v>265.9197509611581</v>
       </c>
       <c r="M26" t="n">
-        <v>1031.613911071027</v>
+        <v>301.085226442049</v>
       </c>
       <c r="N26" t="n">
-        <v>306.7144172126735</v>
+        <v>306.7144172126736</v>
       </c>
       <c r="O26" t="n">
-        <v>287.4328581379252</v>
+        <v>287.4328581379253</v>
       </c>
       <c r="P26" t="n">
-        <v>239.6542513562369</v>
+        <v>992.6632284775063</v>
       </c>
       <c r="Q26" t="n">
-        <v>172.0632193728914</v>
+        <v>668.8802975170684</v>
       </c>
       <c r="R26" t="n">
-        <v>86.06869441248989</v>
+        <v>239.8451169152688</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>19.34196065395248</v>
+        <v>19.3419606539525</v>
       </c>
       <c r="J27" t="n">
-        <v>76.84296941552533</v>
+        <v>371.895992112082</v>
       </c>
       <c r="K27" t="n">
         <v>144.165317551548</v>
@@ -36688,16 +36688,16 @@
         <v>246.9328044879843</v>
       </c>
       <c r="O27" t="n">
-        <v>222.2480852614988</v>
+        <v>222.2480852614989</v>
       </c>
       <c r="P27" t="n">
-        <v>493.3425604509101</v>
+        <v>175.2003253267999</v>
       </c>
       <c r="Q27" t="n">
         <v>108.9229702262614</v>
       </c>
       <c r="R27" t="n">
-        <v>40.37053307086879</v>
+        <v>63.45974549842204</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,22 +36758,22 @@
         <v>329.286837714494</v>
       </c>
       <c r="L28" t="n">
-        <v>486.8404317482685</v>
+        <v>486.8404317482686</v>
       </c>
       <c r="M28" t="n">
         <v>530.6945073118877</v>
       </c>
       <c r="N28" t="n">
-        <v>429.9835792314817</v>
+        <v>513.6386465400071</v>
       </c>
       <c r="O28" t="n">
-        <v>481.2502628978454</v>
+        <v>481.2502628978455</v>
       </c>
       <c r="P28" t="n">
         <v>398.1251078850736</v>
       </c>
       <c r="Q28" t="n">
-        <v>200.6960355777093</v>
+        <v>117.0409682691837</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>39.77617086708312</v>
+        <v>39.77617086708314</v>
       </c>
       <c r="J29" t="n">
         <v>134.2053002425976</v>
       </c>
       <c r="K29" t="n">
-        <v>967.9675134813341</v>
+        <v>967.9675134813342</v>
       </c>
       <c r="L29" t="n">
-        <v>1031.613911071027</v>
+        <v>265.9197509611581</v>
       </c>
       <c r="M29" t="n">
-        <v>665.5015154827872</v>
+        <v>301.085226442049</v>
       </c>
       <c r="N29" t="n">
-        <v>306.7144172126735</v>
+        <v>306.7144172126736</v>
       </c>
       <c r="O29" t="n">
-        <v>287.4328581379252</v>
+        <v>287.4328581379253</v>
       </c>
       <c r="P29" t="n">
-        <v>239.6542513562369</v>
+        <v>992.6632284775063</v>
       </c>
       <c r="Q29" t="n">
-        <v>172.0632193728914</v>
+        <v>668.8802975170684</v>
       </c>
       <c r="R29" t="n">
-        <v>239.8451169152688</v>
+        <v>120.1295108004303</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>19.34196065395248</v>
+        <v>19.3419606539525</v>
       </c>
       <c r="J30" t="n">
-        <v>76.84296941552533</v>
+        <v>371.895992112082</v>
       </c>
       <c r="K30" t="n">
         <v>144.165317551548</v>
@@ -36919,22 +36919,22 @@
         <v>201.4515079650912</v>
       </c>
       <c r="M30" t="n">
-        <v>556.4039067807425</v>
+        <v>238.2616716566319</v>
       </c>
       <c r="N30" t="n">
         <v>246.9328044879843</v>
       </c>
       <c r="O30" t="n">
-        <v>222.2480852614988</v>
+        <v>222.2480852614989</v>
       </c>
       <c r="P30" t="n">
-        <v>175.2003253267998</v>
+        <v>175.2003253267999</v>
       </c>
       <c r="Q30" t="n">
         <v>108.9229702262614</v>
       </c>
       <c r="R30" t="n">
-        <v>40.37053307086879</v>
+        <v>63.45974549842204</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>119.2116090216332</v>
+        <v>40.50280432646062</v>
       </c>
       <c r="K31" t="n">
-        <v>329.286837714494</v>
+        <v>324.3405751011411</v>
       </c>
       <c r="L31" t="n">
-        <v>486.8404317482685</v>
+        <v>486.8404317482686</v>
       </c>
       <c r="M31" t="n">
         <v>530.6945073118877</v>
@@ -37004,10 +37004,10 @@
         <v>513.6386465400071</v>
       </c>
       <c r="O31" t="n">
-        <v>481.2502628978454</v>
+        <v>481.2502628978455</v>
       </c>
       <c r="P31" t="n">
-        <v>314.4700405765485</v>
+        <v>398.1251078850736</v>
       </c>
       <c r="Q31" t="n">
         <v>200.6960355777093</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>39.77617086708312</v>
+        <v>39.77617086708314</v>
       </c>
       <c r="J32" t="n">
         <v>529.8913797452503</v>
       </c>
       <c r="K32" t="n">
-        <v>967.9675134813341</v>
+        <v>606.3422503666217</v>
       </c>
       <c r="L32" t="n">
-        <v>265.919750961158</v>
+        <v>265.9197509611581</v>
       </c>
       <c r="M32" t="n">
         <v>301.085226442049</v>
       </c>
       <c r="N32" t="n">
-        <v>306.7144172126735</v>
+        <v>306.7144172126736</v>
       </c>
       <c r="O32" t="n">
-        <v>678.8165721444821</v>
+        <v>287.4328581379253</v>
       </c>
       <c r="P32" t="n">
-        <v>239.6542513562369</v>
+        <v>992.6632284775063</v>
       </c>
       <c r="Q32" t="n">
-        <v>668.8802975170682</v>
+        <v>668.8802975170684</v>
       </c>
       <c r="R32" t="n">
-        <v>86.06869441248989</v>
+        <v>86.06869441248992</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>19.34196065395248</v>
+        <v>43.03620898164122</v>
       </c>
       <c r="J33" t="n">
-        <v>76.84296941552533</v>
+        <v>264.7702488534557</v>
       </c>
       <c r="K33" t="n">
         <v>144.165317551548</v>
@@ -37159,19 +37159,19 @@
         <v>238.2616716566319</v>
       </c>
       <c r="N33" t="n">
-        <v>565.0750396120949</v>
+        <v>246.9328044879843</v>
       </c>
       <c r="O33" t="n">
-        <v>222.2480852614988</v>
+        <v>222.2480852614989</v>
       </c>
       <c r="P33" t="n">
-        <v>175.2003253267998</v>
+        <v>175.2003253267999</v>
       </c>
       <c r="Q33" t="n">
         <v>108.9229702262614</v>
       </c>
       <c r="R33" t="n">
-        <v>40.37053307086879</v>
+        <v>146.8912404293595</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,16 +37232,16 @@
         <v>329.286837714494</v>
       </c>
       <c r="L34" t="n">
-        <v>403.185364439743</v>
+        <v>486.8404317482686</v>
       </c>
       <c r="M34" t="n">
-        <v>530.6945073118877</v>
+        <v>447.0394400033621</v>
       </c>
       <c r="N34" t="n">
         <v>513.6386465400071</v>
       </c>
       <c r="O34" t="n">
-        <v>481.2502628978454</v>
+        <v>481.2502628978455</v>
       </c>
       <c r="P34" t="n">
         <v>398.1251078850736</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>39.77617086708312</v>
+        <v>39.77617086708314</v>
       </c>
       <c r="J35" t="n">
         <v>134.2053002425976</v>
@@ -37317,19 +37317,19 @@
         <v>301.085226442049</v>
       </c>
       <c r="N35" t="n">
-        <v>306.7144172126735</v>
+        <v>306.7144172126736</v>
       </c>
       <c r="O35" t="n">
-        <v>287.4328581379252</v>
+        <v>287.4328581379253</v>
       </c>
       <c r="P35" t="n">
-        <v>239.6542513562369</v>
+        <v>239.654251356237</v>
       </c>
       <c r="Q35" t="n">
         <v>172.0632193728914</v>
       </c>
       <c r="R35" t="n">
-        <v>86.06869441248989</v>
+        <v>86.06869441248915</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>43.03620898164121</v>
+        <v>43.03620898164122</v>
       </c>
       <c r="J36" t="n">
-        <v>76.84296941552533</v>
+        <v>264.7702488534557</v>
       </c>
       <c r="K36" t="n">
         <v>144.165317551548</v>
@@ -37393,16 +37393,16 @@
         <v>201.4515079650912</v>
       </c>
       <c r="M36" t="n">
-        <v>426.1889510945631</v>
+        <v>238.2616716566319</v>
       </c>
       <c r="N36" t="n">
         <v>246.9328044879843</v>
       </c>
       <c r="O36" t="n">
-        <v>222.2480852614988</v>
+        <v>222.2480852614989</v>
       </c>
       <c r="P36" t="n">
-        <v>175.2003253267998</v>
+        <v>175.2003253267999</v>
       </c>
       <c r="Q36" t="n">
         <v>108.9229702262614</v>
@@ -37466,19 +37466,19 @@
         <v>119.2116090216332</v>
       </c>
       <c r="K37" t="n">
-        <v>111.1606419117556</v>
+        <v>329.286837714494</v>
       </c>
       <c r="L37" t="n">
-        <v>486.8404317482685</v>
+        <v>486.8404317482686</v>
       </c>
       <c r="M37" t="n">
         <v>112.9819007837849</v>
       </c>
       <c r="N37" t="n">
-        <v>513.6386465400071</v>
+        <v>111.5851891239666</v>
       </c>
       <c r="O37" t="n">
-        <v>99.7327636016805</v>
+        <v>283.6600252149827</v>
       </c>
       <c r="P37" t="n">
         <v>398.1251078850736</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>39.77617086708312</v>
+        <v>39.77617086708314</v>
       </c>
       <c r="J38" t="n">
-        <v>134.2053002425977</v>
+        <v>134.2053002425976</v>
       </c>
       <c r="K38" t="n">
         <v>209.4672480648086</v>
       </c>
       <c r="L38" t="n">
-        <v>265.919750961158</v>
+        <v>265.9197509611581</v>
       </c>
       <c r="M38" t="n">
         <v>301.085226442049</v>
       </c>
       <c r="N38" t="n">
-        <v>306.7144172126735</v>
+        <v>306.7144172126736</v>
       </c>
       <c r="O38" t="n">
-        <v>287.4328581379252</v>
+        <v>287.4328581379253</v>
       </c>
       <c r="P38" t="n">
-        <v>239.6542513562369</v>
+        <v>239.654251356237</v>
       </c>
       <c r="Q38" t="n">
         <v>172.0632193728914</v>
       </c>
       <c r="R38" t="n">
-        <v>86.06869441248989</v>
+        <v>86.06869441248992</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>43.03620898164121</v>
+        <v>19.3419606539525</v>
       </c>
       <c r="J39" t="n">
-        <v>76.84296941552533</v>
+        <v>371.895992112082</v>
       </c>
       <c r="K39" t="n">
         <v>144.165317551548</v>
@@ -37636,16 +37636,16 @@
         <v>246.9328044879843</v>
       </c>
       <c r="O39" t="n">
-        <v>222.2480852614988</v>
+        <v>222.2480852614989</v>
       </c>
       <c r="P39" t="n">
-        <v>175.2003253267998</v>
+        <v>175.2003253267999</v>
       </c>
       <c r="Q39" t="n">
-        <v>403.3709570226829</v>
+        <v>108.9229702262614</v>
       </c>
       <c r="R39" t="n">
-        <v>40.37053307086879</v>
+        <v>63.45974549842227</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>40.50280432646061</v>
+        <v>119.2116090216332</v>
       </c>
       <c r="K40" t="n">
         <v>329.286837714494</v>
       </c>
       <c r="L40" t="n">
-        <v>106.6496301410312</v>
+        <v>486.8404317482686</v>
       </c>
       <c r="M40" t="n">
-        <v>515.8069555355137</v>
+        <v>112.9819007837849</v>
       </c>
       <c r="N40" t="n">
-        <v>513.6386465400071</v>
+        <v>111.5851891239666</v>
       </c>
       <c r="O40" t="n">
-        <v>99.7327636016805</v>
+        <v>283.6600252149834</v>
       </c>
       <c r="P40" t="n">
-        <v>388.9759862369546</v>
+        <v>398.1251078850736</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.7935129737709</v>
+        <v>200.6960355777093</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>39.77617086708312</v>
+        <v>39.77617086708315</v>
       </c>
       <c r="J41" t="n">
         <v>134.2053002425976</v>
       </c>
       <c r="K41" t="n">
-        <v>209.4672480648086</v>
+        <v>209.4672480648087</v>
       </c>
       <c r="L41" t="n">
-        <v>265.919750961158</v>
+        <v>265.9197509611581</v>
       </c>
       <c r="M41" t="n">
-        <v>301.085226442049</v>
+        <v>301.0852264420491</v>
       </c>
       <c r="N41" t="n">
-        <v>306.7144172126735</v>
+        <v>306.7144172126737</v>
       </c>
       <c r="O41" t="n">
-        <v>287.4328581379252</v>
+        <v>287.4328581379256</v>
       </c>
       <c r="P41" t="n">
-        <v>239.6542513562369</v>
+        <v>239.654251356237</v>
       </c>
       <c r="Q41" t="n">
         <v>172.0632193728914</v>
       </c>
       <c r="R41" t="n">
-        <v>86.06869441248989</v>
+        <v>86.06869441248992</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>43.03620898164121</v>
+        <v>19.3419606539525</v>
       </c>
       <c r="J42" t="n">
-        <v>264.7702488534565</v>
+        <v>288.4644971811444</v>
       </c>
       <c r="K42" t="n">
-        <v>144.165317551548</v>
+        <v>144.1653175515481</v>
       </c>
       <c r="L42" t="n">
-        <v>201.4515079650912</v>
+        <v>201.4515079650913</v>
       </c>
       <c r="M42" t="n">
         <v>238.2616716566319</v>
@@ -37873,10 +37873,10 @@
         <v>246.9328044879843</v>
       </c>
       <c r="O42" t="n">
-        <v>222.2480852614988</v>
+        <v>222.2480852614989</v>
       </c>
       <c r="P42" t="n">
-        <v>175.2003253267998</v>
+        <v>175.2003253267999</v>
       </c>
       <c r="Q42" t="n">
         <v>108.9229702262614</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>40.50280432646061</v>
+        <v>119.2116090216332</v>
       </c>
       <c r="K43" t="n">
         <v>329.286837714494</v>
       </c>
       <c r="L43" t="n">
-        <v>486.8404317482685</v>
+        <v>106.6496301410313</v>
       </c>
       <c r="M43" t="n">
-        <v>112.9819007837849</v>
+        <v>515.806955535514</v>
       </c>
       <c r="N43" t="n">
-        <v>513.6386465400071</v>
+        <v>513.6386465400072</v>
       </c>
       <c r="O43" t="n">
-        <v>429.133253252909</v>
+        <v>99.73276360168055</v>
       </c>
       <c r="P43" t="n">
-        <v>82.20974973021747</v>
+        <v>157.3646589378444</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.7935129737709</v>
+        <v>200.6960355777094</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>39.77617086708312</v>
+        <v>39.77617086708315</v>
       </c>
       <c r="J44" t="n">
         <v>134.2053002425976</v>
       </c>
       <c r="K44" t="n">
-        <v>209.4672480648086</v>
+        <v>209.4672480648087</v>
       </c>
       <c r="L44" t="n">
-        <v>265.919750961158</v>
+        <v>265.9197509611581</v>
       </c>
       <c r="M44" t="n">
-        <v>301.085226442049</v>
+        <v>301.0852264420491</v>
       </c>
       <c r="N44" t="n">
-        <v>306.7144172126735</v>
+        <v>306.7144172126737</v>
       </c>
       <c r="O44" t="n">
-        <v>287.4328581379252</v>
+        <v>287.4328581379253</v>
       </c>
       <c r="P44" t="n">
-        <v>239.6542513562369</v>
+        <v>239.654251356237</v>
       </c>
       <c r="Q44" t="n">
         <v>172.0632193728914</v>
       </c>
       <c r="R44" t="n">
-        <v>86.06869441248989</v>
+        <v>86.06869441248992</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.34196065395248</v>
+        <v>43.03620898164122</v>
       </c>
       <c r="J45" t="n">
-        <v>76.84296941552533</v>
+        <v>264.7702488534557</v>
       </c>
       <c r="K45" t="n">
-        <v>144.165317551548</v>
+        <v>144.1653175515481</v>
       </c>
       <c r="L45" t="n">
-        <v>201.4515079650912</v>
+        <v>201.4515079650913</v>
       </c>
       <c r="M45" t="n">
         <v>238.2616716566319</v>
       </c>
       <c r="N45" t="n">
-        <v>271.5161693380795</v>
+        <v>246.9328044879843</v>
       </c>
       <c r="O45" t="n">
-        <v>515.8069555355139</v>
+        <v>222.2480852614989</v>
       </c>
       <c r="P45" t="n">
-        <v>175.2003253267998</v>
+        <v>175.2003253267999</v>
       </c>
       <c r="Q45" t="n">
         <v>108.9229702262614</v>
       </c>
       <c r="R45" t="n">
-        <v>40.37053307086879</v>
+        <v>146.8912404293595</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>119.2116090216332</v>
+        <v>40.50280432646063</v>
       </c>
       <c r="K46" t="n">
-        <v>329.286837714494</v>
+        <v>79.50642446800713</v>
       </c>
       <c r="L46" t="n">
-        <v>486.8404317482685</v>
+        <v>281.6787805980911</v>
       </c>
       <c r="M46" t="n">
-        <v>515.8069555355139</v>
+        <v>515.806955535514</v>
       </c>
       <c r="N46" t="n">
-        <v>111.5851891239666</v>
+        <v>513.6386465400072</v>
       </c>
       <c r="O46" t="n">
-        <v>349.6528512220489</v>
+        <v>481.2502628978455</v>
       </c>
       <c r="P46" t="n">
-        <v>82.20974973021747</v>
+        <v>82.2097497302175</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.7935129737709</v>
+        <v>47.79351297377093</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
